--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>ASTL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>793100</v>
+        <v>835700</v>
       </c>
       <c r="E8" s="3">
-        <v>619500</v>
+        <v>792700</v>
       </c>
       <c r="F8" s="3">
-        <v>501300</v>
+        <v>619200</v>
       </c>
       <c r="G8" s="3">
-        <v>337600</v>
+        <v>501100</v>
       </c>
       <c r="H8" s="3">
-        <v>296000</v>
+        <v>337400</v>
       </c>
       <c r="I8" s="3">
-        <v>274300</v>
+        <v>295800</v>
       </c>
       <c r="J8" s="3">
+        <v>274200</v>
+      </c>
+      <c r="K8" s="3">
         <v>394300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>454700</v>
+        <v>470700</v>
       </c>
       <c r="E9" s="3">
-        <v>401000</v>
+        <v>454500</v>
       </c>
       <c r="F9" s="3">
-        <v>1690300</v>
+        <v>400800</v>
       </c>
       <c r="G9" s="3">
-        <v>339300</v>
+        <v>1689600</v>
       </c>
       <c r="H9" s="3">
-        <v>321200</v>
+        <v>339200</v>
       </c>
       <c r="I9" s="3">
-        <v>286700</v>
+        <v>321000</v>
       </c>
       <c r="J9" s="3">
+        <v>286600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1985700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>338400</v>
+        <v>365000</v>
       </c>
       <c r="E10" s="3">
-        <v>218500</v>
+        <v>338200</v>
       </c>
       <c r="F10" s="3">
-        <v>-1189000</v>
+        <v>218400</v>
       </c>
       <c r="G10" s="3">
+        <v>-1188600</v>
+      </c>
+      <c r="H10" s="3">
         <v>-1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-25200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-12400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1591500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E14" s="3">
         <v>4900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
-        <v>-41500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-16300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-21200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>482300</v>
+        <v>495200</v>
       </c>
       <c r="E17" s="3">
-        <v>423800</v>
+        <v>482100</v>
       </c>
       <c r="F17" s="3">
-        <v>1342500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>315400</v>
+        <v>423600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I17" s="3">
-        <v>276500</v>
+        <v>315200</v>
       </c>
       <c r="J17" s="3">
+        <v>276400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1643800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>310700</v>
+        <v>340400</v>
       </c>
       <c r="E18" s="3">
-        <v>195700</v>
+        <v>310600</v>
       </c>
       <c r="F18" s="3">
-        <v>-841300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
+        <v>195600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-840900</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>-19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1249600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="E20" s="3">
         <v>5500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13200</v>
       </c>
-      <c r="F20" s="3">
-        <v>781500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="3">
+        <v>781200</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
         <v>-17000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1148400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>333600</v>
+        <v>195900</v>
       </c>
       <c r="E21" s="3">
-        <v>198800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>333400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>198700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>8300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8800</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>10700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>307900</v>
+        <v>174400</v>
       </c>
       <c r="E23" s="3">
+        <v>307800</v>
+      </c>
+      <c r="F23" s="3">
         <v>173700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-59700</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
         <v>-47100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-141500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E24" s="3">
         <v>81600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>226300</v>
+        <v>96500</v>
       </c>
       <c r="E26" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F26" s="3">
         <v>159800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-59700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
         <v>-47100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-138100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>226300</v>
+        <v>96500</v>
       </c>
       <c r="E27" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F27" s="3">
         <v>159800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-59700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
         <v>-47100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-138100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-781500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="3">
+        <v>-781200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
         <v>17000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1148400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>226300</v>
+        <v>96500</v>
       </c>
       <c r="E33" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F33" s="3">
         <v>159800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-59700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
         <v>-47100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-138100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>226300</v>
+        <v>96500</v>
       </c>
       <c r="E35" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F35" s="3">
         <v>159800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-59700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
         <v>-47100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-138100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,20 +1619,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>287800</v>
+        <v>461000</v>
       </c>
       <c r="E41" s="3">
+        <v>287700</v>
+      </c>
+      <c r="F41" s="3">
         <v>17200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,19 +1681,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>349900</v>
+        <v>357100</v>
       </c>
       <c r="E43" s="3">
-        <v>261600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+        <v>349800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>261500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -1621,19 +1713,22 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>381500</v>
+        <v>483100</v>
       </c>
       <c r="E44" s="3">
-        <v>368600</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>381400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>368400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -1650,19 +1745,22 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E45" s="3">
         <v>132000</v>
       </c>
-      <c r="E45" s="3">
-        <v>137400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>137300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1679,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1151300</v>
+        <v>1414700</v>
       </c>
       <c r="E46" s="3">
-        <v>784700</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
+        <v>1150800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>784400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
@@ -1708,20 +1809,23 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>1700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1737,19 +1841,22 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>557500</v>
+        <v>560000</v>
       </c>
       <c r="E48" s="3">
-        <v>539600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
+        <v>557200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>539400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -1766,20 +1873,23 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1715900</v>
+        <v>1978100</v>
       </c>
       <c r="E54" s="3">
-        <v>1332400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
+        <v>1715200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1331900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>80500</v>
+        <v>84600</v>
       </c>
       <c r="E57" s="3">
-        <v>53500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
+        <v>80400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>53400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
@@ -1995,19 +2125,22 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>15800</v>
       </c>
-      <c r="E58" s="3">
-        <v>13000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>12900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2024,20 +2157,23 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>218200</v>
+        <v>716500</v>
       </c>
       <c r="E59" s="3">
+        <v>218100</v>
+      </c>
+      <c r="F59" s="3">
         <v>194500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2053,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>314400</v>
+        <v>806900</v>
       </c>
       <c r="E60" s="3">
-        <v>261000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
+        <v>314300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>260800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
@@ -2082,19 +2221,22 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>410300</v>
+        <v>66900</v>
       </c>
       <c r="E61" s="3">
-        <v>404400</v>
+        <v>410200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>404200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2111,19 +2253,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>405200</v>
+        <v>435500</v>
       </c>
       <c r="E62" s="3">
-        <v>382600</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+        <v>405000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>382500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1129900</v>
+        <v>1309300</v>
       </c>
       <c r="E66" s="3">
-        <v>1048000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
+        <v>1129500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1047500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,20 +2555,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>190600</v>
+        <v>-122800</v>
       </c>
       <c r="E72" s="3">
+        <v>190500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-35900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>586000</v>
+        <v>668800</v>
       </c>
       <c r="E76" s="3">
-        <v>284400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
+        <v>585700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>284300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>226300</v>
+        <v>96500</v>
       </c>
       <c r="E81" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F81" s="3">
         <v>159800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-59700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
         <v>-47100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-138100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E83" s="3">
         <v>17300</v>
       </c>
-      <c r="E83" s="3">
-        <v>16300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="F83" s="3">
+        <v>16200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3">
         <v>33500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>298400</v>
+        <v>249900</v>
       </c>
       <c r="E89" s="3">
-        <v>95100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+        <v>298300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>95000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
         <v>-60000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
         <v>-24200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-79300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
         <v>-96700</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3134,53 +3382,59 @@
         <v>3100</v>
       </c>
       <c r="E101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
         <v>-8300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>270600</v>
+        <v>173300</v>
       </c>
       <c r="E102" s="3">
+        <v>270500</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
-        <v>-190100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-190000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>835700</v>
+        <v>816400</v>
       </c>
       <c r="E8" s="3">
-        <v>792700</v>
+        <v>774500</v>
       </c>
       <c r="F8" s="3">
-        <v>619200</v>
+        <v>605000</v>
       </c>
       <c r="G8" s="3">
-        <v>501100</v>
+        <v>489500</v>
       </c>
       <c r="H8" s="3">
-        <v>337400</v>
+        <v>329700</v>
       </c>
       <c r="I8" s="3">
-        <v>295800</v>
+        <v>289000</v>
       </c>
       <c r="J8" s="3">
-        <v>274200</v>
+        <v>267900</v>
       </c>
       <c r="K8" s="3">
         <v>394300</v>
@@ -754,25 +754,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>470700</v>
+        <v>459800</v>
       </c>
       <c r="E9" s="3">
-        <v>454500</v>
+        <v>444000</v>
       </c>
       <c r="F9" s="3">
-        <v>400800</v>
+        <v>391600</v>
       </c>
       <c r="G9" s="3">
-        <v>1689600</v>
+        <v>1650700</v>
       </c>
       <c r="H9" s="3">
-        <v>339200</v>
+        <v>331300</v>
       </c>
       <c r="I9" s="3">
-        <v>321000</v>
+        <v>313600</v>
       </c>
       <c r="J9" s="3">
-        <v>286600</v>
+        <v>280000</v>
       </c>
       <c r="K9" s="3">
         <v>1985700</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>365000</v>
+        <v>356600</v>
       </c>
       <c r="E10" s="3">
-        <v>338200</v>
+        <v>330400</v>
       </c>
       <c r="F10" s="3">
-        <v>218400</v>
+        <v>213400</v>
       </c>
       <c r="G10" s="3">
-        <v>-1188600</v>
+        <v>-1161200</v>
       </c>
       <c r="H10" s="3">
         <v>-1700</v>
       </c>
       <c r="I10" s="3">
-        <v>-25200</v>
+        <v>-24600</v>
       </c>
       <c r="J10" s="3">
-        <v>-12400</v>
+        <v>-12100</v>
       </c>
       <c r="K10" s="3">
         <v>-1591500</v>
@@ -896,25 +896,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="E14" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G14" s="3">
-        <v>-41400</v>
+        <v>-40500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>-16300</v>
+        <v>-15900</v>
       </c>
       <c r="J14" s="3">
-        <v>-21200</v>
+        <v>-20700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -971,25 +971,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>495200</v>
+        <v>483800</v>
       </c>
       <c r="E17" s="3">
-        <v>482100</v>
+        <v>471000</v>
       </c>
       <c r="F17" s="3">
-        <v>423600</v>
+        <v>413800</v>
       </c>
       <c r="G17" s="3">
-        <v>1342000</v>
+        <v>1311000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
-        <v>315200</v>
+        <v>308000</v>
       </c>
       <c r="J17" s="3">
-        <v>276400</v>
+        <v>270000</v>
       </c>
       <c r="K17" s="3">
         <v>1643800</v>
@@ -1003,25 +1003,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>340400</v>
+        <v>332600</v>
       </c>
       <c r="E18" s="3">
-        <v>310600</v>
+        <v>303400</v>
       </c>
       <c r="F18" s="3">
-        <v>195600</v>
+        <v>191100</v>
       </c>
       <c r="G18" s="3">
-        <v>-840900</v>
+        <v>-821500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>-19400</v>
+        <v>-18900</v>
       </c>
       <c r="J18" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K18" s="3">
         <v>-1249600</v>
@@ -1049,25 +1049,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-161400</v>
+        <v>-157700</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F20" s="3">
-        <v>-13200</v>
+        <v>-12900</v>
       </c>
       <c r="G20" s="3">
-        <v>781200</v>
+        <v>763200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <v>-17000</v>
+        <v>-16600</v>
       </c>
       <c r="J20" s="3">
-        <v>-19400</v>
+        <v>-18900</v>
       </c>
       <c r="K20" s="3">
         <v>1148400</v>
@@ -1081,13 +1081,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>195900</v>
+        <v>191400</v>
       </c>
       <c r="E21" s="3">
-        <v>333400</v>
+        <v>325700</v>
       </c>
       <c r="F21" s="3">
-        <v>198700</v>
+        <v>194100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1096,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J21" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1113,13 +1113,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E22" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="F22" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1128,10 +1128,10 @@
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="J22" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="K22" s="3">
         <v>40300</v>
@@ -1145,25 +1145,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174400</v>
+        <v>170300</v>
       </c>
       <c r="E23" s="3">
-        <v>307800</v>
+        <v>300700</v>
       </c>
       <c r="F23" s="3">
-        <v>173700</v>
+        <v>169700</v>
       </c>
       <c r="G23" s="3">
-        <v>-59700</v>
+        <v>-58300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="3">
-        <v>-47100</v>
+        <v>-46000</v>
       </c>
       <c r="J23" s="3">
-        <v>-33500</v>
+        <v>-32700</v>
       </c>
       <c r="K23" s="3">
         <v>-141500</v>
@@ -1177,13 +1177,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77800</v>
+        <v>76100</v>
       </c>
       <c r="E24" s="3">
-        <v>81600</v>
+        <v>79700</v>
       </c>
       <c r="F24" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>96500</v>
+        <v>94300</v>
       </c>
       <c r="E26" s="3">
-        <v>226200</v>
+        <v>220900</v>
       </c>
       <c r="F26" s="3">
-        <v>159800</v>
+        <v>156100</v>
       </c>
       <c r="G26" s="3">
-        <v>-59700</v>
+        <v>-58300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <v>-47100</v>
+        <v>-46000</v>
       </c>
       <c r="J26" s="3">
-        <v>-33500</v>
+        <v>-32700</v>
       </c>
       <c r="K26" s="3">
         <v>-138100</v>
@@ -1273,25 +1273,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96500</v>
+        <v>94300</v>
       </c>
       <c r="E27" s="3">
-        <v>226200</v>
+        <v>220900</v>
       </c>
       <c r="F27" s="3">
-        <v>159800</v>
+        <v>156100</v>
       </c>
       <c r="G27" s="3">
-        <v>-59700</v>
+        <v>-58300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <v>-47100</v>
+        <v>-46000</v>
       </c>
       <c r="J27" s="3">
-        <v>-33500</v>
+        <v>-32700</v>
       </c>
       <c r="K27" s="3">
         <v>-138100</v>
@@ -1433,25 +1433,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>161400</v>
+        <v>157700</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="F32" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="G32" s="3">
-        <v>-781200</v>
+        <v>-763200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <v>17000</v>
+        <v>16600</v>
       </c>
       <c r="J32" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="K32" s="3">
         <v>-1148400</v>
@@ -1465,25 +1465,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96500</v>
+        <v>94300</v>
       </c>
       <c r="E33" s="3">
-        <v>226200</v>
+        <v>220900</v>
       </c>
       <c r="F33" s="3">
-        <v>159800</v>
+        <v>156100</v>
       </c>
       <c r="G33" s="3">
-        <v>-59700</v>
+        <v>-58300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
-        <v>-47100</v>
+        <v>-46000</v>
       </c>
       <c r="J33" s="3">
-        <v>-33500</v>
+        <v>-32700</v>
       </c>
       <c r="K33" s="3">
         <v>-138100</v>
@@ -1529,25 +1529,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96500</v>
+        <v>94300</v>
       </c>
       <c r="E35" s="3">
-        <v>226200</v>
+        <v>220900</v>
       </c>
       <c r="F35" s="3">
-        <v>159800</v>
+        <v>156100</v>
       </c>
       <c r="G35" s="3">
-        <v>-59700</v>
+        <v>-58300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
-        <v>-47100</v>
+        <v>-46000</v>
       </c>
       <c r="J35" s="3">
-        <v>-33500</v>
+        <v>-32700</v>
       </c>
       <c r="K35" s="3">
         <v>-138100</v>
@@ -1626,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>461000</v>
+        <v>450400</v>
       </c>
       <c r="E41" s="3">
-        <v>287700</v>
+        <v>281100</v>
       </c>
       <c r="F41" s="3">
-        <v>17200</v>
+        <v>16800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
@@ -1690,13 +1690,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>357100</v>
+        <v>348800</v>
       </c>
       <c r="E43" s="3">
-        <v>349800</v>
+        <v>341700</v>
       </c>
       <c r="F43" s="3">
-        <v>261500</v>
+        <v>255400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -1722,13 +1722,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>483100</v>
+        <v>471900</v>
       </c>
       <c r="E44" s="3">
-        <v>381400</v>
+        <v>372600</v>
       </c>
       <c r="F44" s="3">
-        <v>368400</v>
+        <v>359900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -1754,13 +1754,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>113500</v>
+        <v>110900</v>
       </c>
       <c r="E45" s="3">
-        <v>132000</v>
+        <v>128900</v>
       </c>
       <c r="F45" s="3">
-        <v>137300</v>
+        <v>134200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1786,13 +1786,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1414700</v>
+        <v>1382000</v>
       </c>
       <c r="E46" s="3">
-        <v>1150800</v>
+        <v>1124300</v>
       </c>
       <c r="F46" s="3">
-        <v>784400</v>
+        <v>766300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
@@ -1824,7 +1824,7 @@
         <v>1700</v>
       </c>
       <c r="F47" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -1850,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>560000</v>
+        <v>547100</v>
       </c>
       <c r="E48" s="3">
-        <v>557200</v>
+        <v>544400</v>
       </c>
       <c r="F48" s="3">
-        <v>539400</v>
+        <v>527000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -1882,10 +1882,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="3">
         <v>1100</v>
@@ -1978,10 +1978,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F52" s="3">
         <v>1600</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1978100</v>
+        <v>1932500</v>
       </c>
       <c r="E54" s="3">
-        <v>1715200</v>
+        <v>1675600</v>
       </c>
       <c r="F54" s="3">
-        <v>1331900</v>
+        <v>1301100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
@@ -2102,13 +2102,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>84600</v>
+        <v>82600</v>
       </c>
       <c r="E57" s="3">
-        <v>80400</v>
+        <v>78600</v>
       </c>
       <c r="F57" s="3">
-        <v>53400</v>
+        <v>52200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
@@ -2134,13 +2134,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E58" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2166,13 +2166,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>716500</v>
+        <v>699900</v>
       </c>
       <c r="E59" s="3">
-        <v>218100</v>
+        <v>213000</v>
       </c>
       <c r="F59" s="3">
-        <v>194500</v>
+        <v>190000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -2198,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>806900</v>
+        <v>788300</v>
       </c>
       <c r="E60" s="3">
-        <v>314300</v>
+        <v>307000</v>
       </c>
       <c r="F60" s="3">
-        <v>260800</v>
+        <v>254800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
@@ -2230,13 +2230,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66900</v>
+        <v>65300</v>
       </c>
       <c r="E61" s="3">
-        <v>410200</v>
+        <v>400700</v>
       </c>
       <c r="F61" s="3">
-        <v>404200</v>
+        <v>394900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>435500</v>
+        <v>425400</v>
       </c>
       <c r="E62" s="3">
-        <v>405000</v>
+        <v>395700</v>
       </c>
       <c r="F62" s="3">
-        <v>382500</v>
+        <v>373700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -2390,13 +2390,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1309300</v>
+        <v>1279100</v>
       </c>
       <c r="E66" s="3">
-        <v>1129500</v>
+        <v>1103400</v>
       </c>
       <c r="F66" s="3">
-        <v>1047500</v>
+        <v>1023400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
@@ -2564,13 +2564,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-122800</v>
+        <v>-120000</v>
       </c>
       <c r="E72" s="3">
-        <v>190500</v>
+        <v>186100</v>
       </c>
       <c r="F72" s="3">
-        <v>-35900</v>
+        <v>-35000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -2692,13 +2692,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>668800</v>
+        <v>653400</v>
       </c>
       <c r="E76" s="3">
-        <v>585700</v>
+        <v>572200</v>
       </c>
       <c r="F76" s="3">
-        <v>284300</v>
+        <v>277800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
@@ -2793,25 +2793,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96500</v>
+        <v>94300</v>
       </c>
       <c r="E81" s="3">
-        <v>226200</v>
+        <v>220900</v>
       </c>
       <c r="F81" s="3">
-        <v>159800</v>
+        <v>156100</v>
       </c>
       <c r="G81" s="3">
-        <v>-59700</v>
+        <v>-58300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="3">
-        <v>-47100</v>
+        <v>-46000</v>
       </c>
       <c r="J81" s="3">
-        <v>-33500</v>
+        <v>-32700</v>
       </c>
       <c r="K81" s="3">
         <v>-138100</v>
@@ -2839,13 +2839,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E83" s="3">
         <v>16900</v>
       </c>
-      <c r="E83" s="3">
-        <v>17300</v>
-      </c>
       <c r="F83" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -2854,7 +2854,7 @@
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3031,13 +3031,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>249900</v>
+        <v>244100</v>
       </c>
       <c r="E89" s="3">
-        <v>298300</v>
+        <v>291400</v>
       </c>
       <c r="F89" s="3">
-        <v>95000</v>
+        <v>92800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
@@ -3046,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <v>-60000</v>
+        <v>-58600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -3077,13 +3077,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23200</v>
+        <v>-22700</v>
       </c>
       <c r="E91" s="3">
-        <v>-19500</v>
+        <v>-19100</v>
       </c>
       <c r="F91" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -3092,7 +3092,7 @@
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-24200</v>
+        <v>-23600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -3173,13 +3173,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21700</v>
+        <v>-21200</v>
       </c>
       <c r="E94" s="3">
-        <v>-19700</v>
+        <v>-19200</v>
       </c>
       <c r="F94" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -3188,7 +3188,7 @@
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <v>-25000</v>
+        <v>-24500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3347,13 +3347,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58000</v>
+        <v>-56700</v>
       </c>
       <c r="E100" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="F100" s="3">
-        <v>-79300</v>
+        <v>-77400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -3362,7 +3362,7 @@
         <v>8</v>
       </c>
       <c r="I100" s="3">
-        <v>-96700</v>
+        <v>-94500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3394,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="I101" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3411,10 +3411,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>173300</v>
+        <v>169400</v>
       </c>
       <c r="E102" s="3">
-        <v>270500</v>
+        <v>264300</v>
       </c>
       <c r="F102" s="3">
         <v>500</v>
@@ -3426,7 +3426,7 @@
         <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>-190000</v>
+        <v>-185600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>ASTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>816400</v>
+        <v>722800</v>
       </c>
       <c r="E8" s="3">
-        <v>774500</v>
+        <v>728700</v>
       </c>
       <c r="F8" s="3">
-        <v>605000</v>
+        <v>824000</v>
       </c>
       <c r="G8" s="3">
-        <v>489500</v>
+        <v>781600</v>
       </c>
       <c r="H8" s="3">
-        <v>329700</v>
+        <v>610600</v>
       </c>
       <c r="I8" s="3">
+        <v>494000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>332700</v>
+      </c>
+      <c r="K8" s="3">
         <v>289000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>267900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>394300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>459800</v>
+        <v>444000</v>
       </c>
       <c r="E9" s="3">
-        <v>444000</v>
+        <v>465500</v>
       </c>
       <c r="F9" s="3">
-        <v>391600</v>
+        <v>464100</v>
       </c>
       <c r="G9" s="3">
-        <v>1650700</v>
+        <v>448200</v>
       </c>
       <c r="H9" s="3">
-        <v>331300</v>
+        <v>395200</v>
       </c>
       <c r="I9" s="3">
+        <v>1666000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>334400</v>
+      </c>
+      <c r="K9" s="3">
         <v>313600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>280000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1985700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>356600</v>
+        <v>278800</v>
       </c>
       <c r="E10" s="3">
-        <v>330400</v>
+        <v>263200</v>
       </c>
       <c r="F10" s="3">
-        <v>213400</v>
+        <v>359900</v>
       </c>
       <c r="G10" s="3">
-        <v>-1161200</v>
+        <v>333500</v>
       </c>
       <c r="H10" s="3">
+        <v>215300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-1171900</v>
+      </c>
+      <c r="J10" s="3">
         <v>-1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-24600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-12100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-1591500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +924,90 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>4800</v>
+        <v>3900</v>
       </c>
       <c r="F14" s="3">
+        <v>191800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-15900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-20700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>483800</v>
+        <v>468300</v>
       </c>
       <c r="E17" s="3">
-        <v>471000</v>
+        <v>492300</v>
       </c>
       <c r="F17" s="3">
-        <v>413800</v>
+        <v>670600</v>
       </c>
       <c r="G17" s="3">
-        <v>1311000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
+        <v>475400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>417700</v>
       </c>
       <c r="I17" s="3">
+        <v>1323200</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>308000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>270000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1643800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>332600</v>
+        <v>254500</v>
       </c>
       <c r="E18" s="3">
-        <v>303400</v>
+        <v>236500</v>
       </c>
       <c r="F18" s="3">
-        <v>191100</v>
+        <v>153400</v>
       </c>
       <c r="G18" s="3">
-        <v>-821500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
+        <v>306300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>192900</v>
       </c>
       <c r="I18" s="3">
+        <v>-829200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>-18900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1249600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1109,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-157700</v>
+        <v>44700</v>
       </c>
       <c r="E20" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G20" s="3">
         <v>5400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>763200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
+      <c r="H20" s="3">
+        <v>-13000</v>
       </c>
       <c r="I20" s="3">
+        <v>770300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-16600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-18900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1148400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>191400</v>
+        <v>316700</v>
       </c>
       <c r="E21" s="3">
-        <v>325700</v>
+        <v>266200</v>
       </c>
       <c r="F21" s="3">
-        <v>194100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
+        <v>193100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>328800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>195900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>8100</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>40300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>170300</v>
+        <v>298900</v>
       </c>
       <c r="E23" s="3">
-        <v>300700</v>
+        <v>248300</v>
       </c>
       <c r="F23" s="3">
-        <v>169700</v>
+        <v>171900</v>
       </c>
       <c r="G23" s="3">
-        <v>-58300</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
+        <v>303500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>171200</v>
       </c>
       <c r="I23" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>-46000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-32700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-141500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>76100</v>
+        <v>65700</v>
       </c>
       <c r="E24" s="3">
-        <v>79700</v>
+        <v>59800</v>
       </c>
       <c r="F24" s="3">
-        <v>13600</v>
+        <v>76800</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
+        <v>80500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13700</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-3400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>94300</v>
+        <v>233200</v>
       </c>
       <c r="E26" s="3">
-        <v>220900</v>
+        <v>188500</v>
       </c>
       <c r="F26" s="3">
-        <v>156100</v>
+        <v>95200</v>
       </c>
       <c r="G26" s="3">
-        <v>-58300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
+        <v>223000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>157500</v>
       </c>
       <c r="I26" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>-46000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-32700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-138100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>94300</v>
+        <v>233200</v>
       </c>
       <c r="E27" s="3">
-        <v>220900</v>
+        <v>188500</v>
       </c>
       <c r="F27" s="3">
-        <v>156100</v>
+        <v>95200</v>
       </c>
       <c r="G27" s="3">
-        <v>-58300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
+        <v>223000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>157500</v>
       </c>
       <c r="I27" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>-46000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-32700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-138100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>157700</v>
+        <v>-44700</v>
       </c>
       <c r="E32" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5400</v>
       </c>
-      <c r="F32" s="3">
-        <v>12900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-763200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
+      <c r="H32" s="3">
+        <v>13000</v>
       </c>
       <c r="I32" s="3">
+        <v>-770300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>16600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>18900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1148400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>94300</v>
+        <v>233200</v>
       </c>
       <c r="E33" s="3">
-        <v>220900</v>
+        <v>188500</v>
       </c>
       <c r="F33" s="3">
-        <v>156100</v>
+        <v>95200</v>
       </c>
       <c r="G33" s="3">
-        <v>-58300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
+        <v>223000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>157500</v>
       </c>
       <c r="I33" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>-46000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-32700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-138100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>94300</v>
+        <v>233200</v>
       </c>
       <c r="E35" s="3">
-        <v>220900</v>
+        <v>188500</v>
       </c>
       <c r="F35" s="3">
-        <v>156100</v>
+        <v>95200</v>
       </c>
       <c r="G35" s="3">
-        <v>-58300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
+        <v>223000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>157500</v>
       </c>
       <c r="I35" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>-46000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-32700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-138100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1792,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>450400</v>
+        <v>879700</v>
       </c>
       <c r="E41" s="3">
-        <v>281100</v>
+        <v>708200</v>
       </c>
       <c r="F41" s="3">
-        <v>16800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
+        <v>454600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>283700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>16900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,25 +1864,31 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>348800</v>
+        <v>252900</v>
       </c>
       <c r="E43" s="3">
-        <v>341700</v>
+        <v>311300</v>
       </c>
       <c r="F43" s="3">
-        <v>255400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+        <v>352100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>344900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>257800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -1716,25 +1902,31 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>471900</v>
+        <v>493400</v>
       </c>
       <c r="E44" s="3">
-        <v>372600</v>
+        <v>371400</v>
       </c>
       <c r="F44" s="3">
-        <v>359900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+        <v>476300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>376000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>363300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -1748,25 +1940,31 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>110900</v>
+        <v>86100</v>
       </c>
       <c r="E45" s="3">
-        <v>128900</v>
+        <v>92000</v>
       </c>
       <c r="F45" s="3">
-        <v>134200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+        <v>111900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>130100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>135400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1780,25 +1978,31 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1382000</v>
+        <v>1712100</v>
       </c>
       <c r="E46" s="3">
-        <v>1124300</v>
+        <v>1482900</v>
       </c>
       <c r="F46" s="3">
-        <v>766300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
+        <v>1394800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1134700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>773400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -1812,25 +2016,31 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>1700</v>
       </c>
-      <c r="F47" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>5200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -1844,25 +2054,31 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>547100</v>
+        <v>661200</v>
       </c>
       <c r="E48" s="3">
-        <v>544400</v>
+        <v>598700</v>
       </c>
       <c r="F48" s="3">
-        <v>527000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+        <v>552100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>549400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>531900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -1876,26 +2092,32 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>900</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,26 +2206,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
-        <v>4100</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,25 +2282,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1932500</v>
+        <v>2375800</v>
       </c>
       <c r="E54" s="3">
-        <v>1675600</v>
+        <v>2084200</v>
       </c>
       <c r="F54" s="3">
-        <v>1301100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
+        <v>1950400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1691200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1313200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,25 +2356,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>82600</v>
+        <v>458800</v>
       </c>
       <c r="E57" s="3">
-        <v>78600</v>
+        <v>42200</v>
       </c>
       <c r="F57" s="3">
-        <v>52200</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
+        <v>83400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>79300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>52700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -2128,25 +2390,31 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>7800</v>
       </c>
       <c r="F58" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>5800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>12800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2160,25 +2428,31 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>699900</v>
+        <v>354500</v>
       </c>
       <c r="E59" s="3">
-        <v>213000</v>
+        <v>365800</v>
       </c>
       <c r="F59" s="3">
-        <v>190000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+        <v>706400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>215000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>191700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2192,25 +2466,31 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>788300</v>
+        <v>821200</v>
       </c>
       <c r="E60" s="3">
-        <v>307000</v>
+        <v>415900</v>
       </c>
       <c r="F60" s="3">
-        <v>254800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
+        <v>795600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>309900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>257200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -2224,25 +2504,31 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65300</v>
+        <v>65800</v>
       </c>
       <c r="E61" s="3">
-        <v>400700</v>
+        <v>65900</v>
       </c>
       <c r="F61" s="3">
-        <v>394900</v>
+        <v>65900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>404400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>398600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2256,25 +2542,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>425400</v>
+        <v>412400</v>
       </c>
       <c r="E62" s="3">
-        <v>395700</v>
+        <v>377800</v>
       </c>
       <c r="F62" s="3">
-        <v>373700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+        <v>429400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>399300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>377100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2694,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1279100</v>
+        <v>1299400</v>
       </c>
       <c r="E66" s="3">
-        <v>1103400</v>
+        <v>859600</v>
       </c>
       <c r="F66" s="3">
-        <v>1023400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
+        <v>1290900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1113700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1032900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,25 +2900,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-120000</v>
+        <v>218400</v>
       </c>
       <c r="E72" s="3">
-        <v>186100</v>
+        <v>60200</v>
       </c>
       <c r="F72" s="3">
-        <v>-35000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
+        <v>-121100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>187900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-35400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,25 +3052,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>653400</v>
+        <v>1076400</v>
       </c>
       <c r="E76" s="3">
-        <v>572200</v>
+        <v>1224500</v>
       </c>
       <c r="F76" s="3">
-        <v>277800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
+        <v>659500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>577500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>280300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>94300</v>
+        <v>233200</v>
       </c>
       <c r="E81" s="3">
-        <v>220900</v>
+        <v>188500</v>
       </c>
       <c r="F81" s="3">
-        <v>156100</v>
+        <v>95200</v>
       </c>
       <c r="G81" s="3">
-        <v>-58300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
+        <v>223000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>157500</v>
       </c>
       <c r="I81" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>-46000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-32700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-138100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3229,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="E83" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="F83" s="3">
-        <v>15900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>32700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>244100</v>
+        <v>214000</v>
       </c>
       <c r="E89" s="3">
-        <v>291400</v>
+        <v>343400</v>
       </c>
       <c r="F89" s="3">
-        <v>92800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
+        <v>246400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>294100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>93700</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>-58600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22700</v>
+        <v>-62000</v>
       </c>
       <c r="E91" s="3">
-        <v>-19100</v>
+        <v>-71600</v>
       </c>
       <c r="F91" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23600</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21200</v>
+        <v>-62000</v>
       </c>
       <c r="E94" s="3">
-        <v>-19200</v>
+        <v>-72700</v>
       </c>
       <c r="F94" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3827,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56700</v>
+        <v>-4700</v>
       </c>
       <c r="E100" s="3">
-        <v>-11000</v>
+        <v>-7400</v>
       </c>
       <c r="F100" s="3">
-        <v>-77400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-94500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F101" s="3">
         <v>3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>169400</v>
+        <v>171500</v>
       </c>
       <c r="E102" s="3">
-        <v>264300</v>
+        <v>253600</v>
       </c>
       <c r="F102" s="3">
+        <v>170900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>266700</v>
+      </c>
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>-185600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>ASTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>722800</v>
+        <v>449900</v>
       </c>
       <c r="E8" s="3">
-        <v>728700</v>
+        <v>701400</v>
       </c>
       <c r="F8" s="3">
-        <v>824000</v>
+        <v>707200</v>
       </c>
       <c r="G8" s="3">
-        <v>781600</v>
+        <v>799600</v>
       </c>
       <c r="H8" s="3">
-        <v>610600</v>
+        <v>758500</v>
       </c>
       <c r="I8" s="3">
-        <v>494000</v>
+        <v>592500</v>
       </c>
       <c r="J8" s="3">
+        <v>479400</v>
+      </c>
+      <c r="K8" s="3">
         <v>332700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>289000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>267900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>394300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>444000</v>
+        <v>427500</v>
       </c>
       <c r="E9" s="3">
-        <v>465500</v>
+        <v>430800</v>
       </c>
       <c r="F9" s="3">
-        <v>464100</v>
+        <v>451700</v>
       </c>
       <c r="G9" s="3">
-        <v>448200</v>
+        <v>450400</v>
       </c>
       <c r="H9" s="3">
-        <v>395200</v>
+        <v>434900</v>
       </c>
       <c r="I9" s="3">
-        <v>1666000</v>
+        <v>383500</v>
       </c>
       <c r="J9" s="3">
+        <v>1616700</v>
+      </c>
+      <c r="K9" s="3">
         <v>334400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>313600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>280000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1985700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>278800</v>
+        <v>22500</v>
       </c>
       <c r="E10" s="3">
-        <v>263200</v>
+        <v>270500</v>
       </c>
       <c r="F10" s="3">
-        <v>359900</v>
+        <v>255400</v>
       </c>
       <c r="G10" s="3">
-        <v>333500</v>
+        <v>349200</v>
       </c>
       <c r="H10" s="3">
-        <v>215300</v>
+        <v>323600</v>
       </c>
       <c r="I10" s="3">
-        <v>-1171900</v>
+        <v>209000</v>
       </c>
       <c r="J10" s="3">
+        <v>-1137300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-24600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-12100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1591500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,75 +959,81 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>191800</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>4900</v>
+        <v>186100</v>
       </c>
       <c r="H14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
-        <v>-40900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-15900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-20700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>468300</v>
+        <v>445700</v>
       </c>
       <c r="E17" s="3">
-        <v>492300</v>
+        <v>454400</v>
       </c>
       <c r="F17" s="3">
-        <v>670600</v>
+        <v>477700</v>
       </c>
       <c r="G17" s="3">
-        <v>475400</v>
+        <v>650800</v>
       </c>
       <c r="H17" s="3">
-        <v>417700</v>
+        <v>461300</v>
       </c>
       <c r="I17" s="3">
-        <v>1323200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+        <v>405300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1284000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>308000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>270000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1643800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>254500</v>
+        <v>4200</v>
       </c>
       <c r="E18" s="3">
-        <v>236500</v>
+        <v>247000</v>
       </c>
       <c r="F18" s="3">
-        <v>153400</v>
+        <v>229500</v>
       </c>
       <c r="G18" s="3">
-        <v>306300</v>
+        <v>148800</v>
       </c>
       <c r="H18" s="3">
-        <v>192900</v>
+        <v>297200</v>
       </c>
       <c r="I18" s="3">
-        <v>-829200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+        <v>187200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-804600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>-18900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1249600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1144,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44700</v>
+        <v>65200</v>
       </c>
       <c r="E20" s="3">
-        <v>12200</v>
+        <v>43400</v>
       </c>
       <c r="F20" s="3">
-        <v>23100</v>
+        <v>11900</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>22500</v>
       </c>
       <c r="H20" s="3">
-        <v>-13000</v>
+        <v>5300</v>
       </c>
       <c r="I20" s="3">
-        <v>770300</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>747500</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-16600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1148400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>316700</v>
+        <v>86200</v>
       </c>
       <c r="E21" s="3">
-        <v>266200</v>
+        <v>307300</v>
       </c>
       <c r="F21" s="3">
-        <v>193100</v>
+        <v>258400</v>
       </c>
       <c r="G21" s="3">
-        <v>328800</v>
+        <v>187400</v>
       </c>
       <c r="H21" s="3">
-        <v>195900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>319000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>190100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>4600</v>
-      </c>
       <c r="G22" s="3">
-        <v>8200</v>
+        <v>4400</v>
       </c>
       <c r="H22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>8000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>10400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>298900</v>
+        <v>69200</v>
       </c>
       <c r="E23" s="3">
-        <v>248300</v>
+        <v>290100</v>
       </c>
       <c r="F23" s="3">
-        <v>171900</v>
+        <v>241000</v>
       </c>
       <c r="G23" s="3">
-        <v>303500</v>
+        <v>166800</v>
       </c>
       <c r="H23" s="3">
-        <v>171200</v>
+        <v>294500</v>
       </c>
       <c r="I23" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+        <v>166200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>-46000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-32700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-141500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65700</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>59800</v>
+        <v>63700</v>
       </c>
       <c r="F24" s="3">
-        <v>76800</v>
+        <v>58000</v>
       </c>
       <c r="G24" s="3">
-        <v>80500</v>
+        <v>74500</v>
       </c>
       <c r="H24" s="3">
-        <v>13700</v>
+        <v>78100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+        <v>13300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>233200</v>
+        <v>65500</v>
       </c>
       <c r="E26" s="3">
-        <v>188500</v>
+        <v>226300</v>
       </c>
       <c r="F26" s="3">
-        <v>95200</v>
+        <v>182900</v>
       </c>
       <c r="G26" s="3">
-        <v>223000</v>
+        <v>92400</v>
       </c>
       <c r="H26" s="3">
-        <v>157500</v>
+        <v>216400</v>
       </c>
       <c r="I26" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+        <v>152900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>-46000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-32700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-138100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>233200</v>
+        <v>65500</v>
       </c>
       <c r="E27" s="3">
-        <v>188500</v>
+        <v>226300</v>
       </c>
       <c r="F27" s="3">
-        <v>95200</v>
+        <v>182900</v>
       </c>
       <c r="G27" s="3">
-        <v>223000</v>
+        <v>92400</v>
       </c>
       <c r="H27" s="3">
-        <v>157500</v>
+        <v>216400</v>
       </c>
       <c r="I27" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+        <v>152900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>-46000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-138100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44700</v>
+        <v>-65200</v>
       </c>
       <c r="E32" s="3">
-        <v>-12200</v>
+        <v>-43400</v>
       </c>
       <c r="F32" s="3">
-        <v>-23100</v>
+        <v>-11900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>-22500</v>
       </c>
       <c r="H32" s="3">
-        <v>13000</v>
+        <v>-5300</v>
       </c>
       <c r="I32" s="3">
-        <v>-770300</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-747500</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>16600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1148400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>233200</v>
+        <v>65500</v>
       </c>
       <c r="E33" s="3">
-        <v>188500</v>
+        <v>226300</v>
       </c>
       <c r="F33" s="3">
-        <v>95200</v>
+        <v>182900</v>
       </c>
       <c r="G33" s="3">
-        <v>223000</v>
+        <v>92400</v>
       </c>
       <c r="H33" s="3">
-        <v>157500</v>
+        <v>216400</v>
       </c>
       <c r="I33" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+        <v>152900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>-46000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-32700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-138100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>233200</v>
+        <v>65500</v>
       </c>
       <c r="E35" s="3">
-        <v>188500</v>
+        <v>226300</v>
       </c>
       <c r="F35" s="3">
-        <v>95200</v>
+        <v>182900</v>
       </c>
       <c r="G35" s="3">
-        <v>223000</v>
+        <v>92400</v>
       </c>
       <c r="H35" s="3">
-        <v>157500</v>
+        <v>216400</v>
       </c>
       <c r="I35" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+        <v>152900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>-46000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-32700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-138100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,28 +1880,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>879700</v>
+        <v>349100</v>
       </c>
       <c r="E41" s="3">
-        <v>708200</v>
+        <v>853700</v>
       </c>
       <c r="F41" s="3">
-        <v>454600</v>
+        <v>687300</v>
       </c>
       <c r="G41" s="3">
-        <v>283700</v>
+        <v>441100</v>
       </c>
       <c r="H41" s="3">
-        <v>16900</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>275300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>16400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,28 +1960,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>252900</v>
+        <v>215700</v>
       </c>
       <c r="E43" s="3">
-        <v>311300</v>
+        <v>245400</v>
       </c>
       <c r="F43" s="3">
-        <v>352100</v>
+        <v>302100</v>
       </c>
       <c r="G43" s="3">
-        <v>344900</v>
+        <v>341600</v>
       </c>
       <c r="H43" s="3">
-        <v>257800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
+        <v>334700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>250200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -1908,28 +2001,31 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>493400</v>
+        <v>650500</v>
       </c>
       <c r="E44" s="3">
-        <v>371400</v>
+        <v>478800</v>
       </c>
       <c r="F44" s="3">
-        <v>476300</v>
+        <v>360400</v>
       </c>
       <c r="G44" s="3">
-        <v>376000</v>
+        <v>462200</v>
       </c>
       <c r="H44" s="3">
-        <v>363300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+        <v>364900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>352500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -1946,28 +2042,31 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86100</v>
+        <v>91800</v>
       </c>
       <c r="E45" s="3">
-        <v>92000</v>
+        <v>83600</v>
       </c>
       <c r="F45" s="3">
-        <v>111900</v>
+        <v>89300</v>
       </c>
       <c r="G45" s="3">
-        <v>130100</v>
+        <v>108600</v>
       </c>
       <c r="H45" s="3">
-        <v>135400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>126300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>131400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1984,28 +2083,31 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1712100</v>
+        <v>1307200</v>
       </c>
       <c r="E46" s="3">
-        <v>1482900</v>
+        <v>1661400</v>
       </c>
       <c r="F46" s="3">
-        <v>1394800</v>
+        <v>1439000</v>
       </c>
       <c r="G46" s="3">
-        <v>1134700</v>
+        <v>1353600</v>
       </c>
       <c r="H46" s="3">
-        <v>773400</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>1101100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>750600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -2022,28 +2124,31 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>1700</v>
       </c>
-      <c r="H47" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>5000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2060,28 +2165,31 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>661200</v>
+        <v>730100</v>
       </c>
       <c r="E48" s="3">
-        <v>598700</v>
+        <v>641600</v>
       </c>
       <c r="F48" s="3">
-        <v>552100</v>
+        <v>580900</v>
       </c>
       <c r="G48" s="3">
-        <v>549400</v>
+        <v>535800</v>
       </c>
       <c r="H48" s="3">
-        <v>531900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>533200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>516100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2098,19 +2206,22 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
       </c>
       <c r="F49" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
@@ -2118,8 +2229,8 @@
       <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>1100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,29 +2329,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
-        <v>1800</v>
-      </c>
       <c r="F52" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="G52" s="3">
-        <v>4200</v>
+        <v>2100</v>
       </c>
       <c r="H52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,28 +2411,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2375800</v>
+        <v>2039300</v>
       </c>
       <c r="E54" s="3">
-        <v>2084200</v>
+        <v>2305500</v>
       </c>
       <c r="F54" s="3">
-        <v>1950400</v>
+        <v>2022500</v>
       </c>
       <c r="G54" s="3">
-        <v>1691200</v>
+        <v>1892700</v>
       </c>
       <c r="H54" s="3">
-        <v>1313200</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>1641200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1274400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,28 +2488,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>458800</v>
+        <v>69600</v>
       </c>
       <c r="E57" s="3">
-        <v>42200</v>
+        <v>445200</v>
       </c>
       <c r="F57" s="3">
-        <v>83400</v>
+        <v>41000</v>
       </c>
       <c r="G57" s="3">
-        <v>79300</v>
+        <v>80900</v>
       </c>
       <c r="H57" s="3">
-        <v>52700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+        <v>77000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>51100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -2396,28 +2527,31 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F58" s="3">
-        <v>5800</v>
+        <v>7600</v>
       </c>
       <c r="G58" s="3">
-        <v>15600</v>
+        <v>5600</v>
       </c>
       <c r="H58" s="3">
-        <v>12800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>15100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>12400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2434,28 +2568,31 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>354500</v>
+        <v>288600</v>
       </c>
       <c r="E59" s="3">
-        <v>365800</v>
+        <v>344000</v>
       </c>
       <c r="F59" s="3">
-        <v>706400</v>
+        <v>355000</v>
       </c>
       <c r="G59" s="3">
-        <v>215000</v>
+        <v>685500</v>
       </c>
       <c r="H59" s="3">
-        <v>191700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>208700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>186100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2472,28 +2609,31 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>821200</v>
+        <v>366100</v>
       </c>
       <c r="E60" s="3">
-        <v>415900</v>
+        <v>796900</v>
       </c>
       <c r="F60" s="3">
-        <v>795600</v>
+        <v>403600</v>
       </c>
       <c r="G60" s="3">
-        <v>309900</v>
+        <v>772100</v>
       </c>
       <c r="H60" s="3">
-        <v>257200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
+        <v>300700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>249600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -2510,28 +2650,31 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65800</v>
+        <v>69700</v>
       </c>
       <c r="E61" s="3">
-        <v>65900</v>
+        <v>63800</v>
       </c>
       <c r="F61" s="3">
-        <v>65900</v>
+        <v>64000</v>
       </c>
       <c r="G61" s="3">
-        <v>404400</v>
+        <v>64000</v>
       </c>
       <c r="H61" s="3">
-        <v>398600</v>
+        <v>392500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>386800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2548,28 +2691,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>412400</v>
+        <v>450900</v>
       </c>
       <c r="E62" s="3">
-        <v>377800</v>
+        <v>400200</v>
       </c>
       <c r="F62" s="3">
-        <v>429400</v>
+        <v>366600</v>
       </c>
       <c r="G62" s="3">
-        <v>399300</v>
+        <v>416700</v>
       </c>
       <c r="H62" s="3">
-        <v>377100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>387500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>366000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,28 +2855,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1299400</v>
+        <v>886700</v>
       </c>
       <c r="E66" s="3">
-        <v>859600</v>
+        <v>1260900</v>
       </c>
       <c r="F66" s="3">
-        <v>1290900</v>
+        <v>834200</v>
       </c>
       <c r="G66" s="3">
-        <v>1113700</v>
+        <v>1252700</v>
       </c>
       <c r="H66" s="3">
-        <v>1032900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>1080700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1002300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,28 +3077,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>218400</v>
+        <v>237300</v>
       </c>
       <c r="E72" s="3">
-        <v>60200</v>
+        <v>212000</v>
       </c>
       <c r="F72" s="3">
-        <v>-121100</v>
+        <v>58400</v>
       </c>
       <c r="G72" s="3">
-        <v>187900</v>
+        <v>-117500</v>
       </c>
       <c r="H72" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>182300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-34300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,28 +3241,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1076400</v>
+        <v>1152600</v>
       </c>
       <c r="E76" s="3">
-        <v>1224500</v>
+        <v>1044600</v>
       </c>
       <c r="F76" s="3">
-        <v>659500</v>
+        <v>1188300</v>
       </c>
       <c r="G76" s="3">
-        <v>577500</v>
+        <v>640000</v>
       </c>
       <c r="H76" s="3">
-        <v>280300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
+        <v>560400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>272000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>233200</v>
+        <v>65500</v>
       </c>
       <c r="E81" s="3">
-        <v>188500</v>
+        <v>226300</v>
       </c>
       <c r="F81" s="3">
-        <v>95200</v>
+        <v>182900</v>
       </c>
       <c r="G81" s="3">
-        <v>223000</v>
+        <v>92400</v>
       </c>
       <c r="H81" s="3">
-        <v>157500</v>
+        <v>216400</v>
       </c>
       <c r="I81" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+        <v>152900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>-46000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-32700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-138100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17500</v>
+        <v>16800</v>
       </c>
       <c r="E83" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H83" s="3">
         <v>16600</v>
       </c>
-      <c r="G83" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="I83" s="3">
+        <v>15500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>32700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>214000</v>
+        <v>-49600</v>
       </c>
       <c r="E89" s="3">
-        <v>343400</v>
+        <v>207700</v>
       </c>
       <c r="F89" s="3">
-        <v>246400</v>
+        <v>333200</v>
       </c>
       <c r="G89" s="3">
-        <v>294100</v>
+        <v>239100</v>
       </c>
       <c r="H89" s="3">
-        <v>93700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>285400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>90900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>-58600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62000</v>
+        <v>-64000</v>
       </c>
       <c r="E91" s="3">
-        <v>-71600</v>
+        <v>-60100</v>
       </c>
       <c r="F91" s="3">
-        <v>-22900</v>
+        <v>-69500</v>
       </c>
       <c r="G91" s="3">
-        <v>-19300</v>
+        <v>-22200</v>
       </c>
       <c r="H91" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+        <v>-18700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-14300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-23600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62000</v>
+        <v>-64000</v>
       </c>
       <c r="E94" s="3">
-        <v>-72700</v>
+        <v>-60100</v>
       </c>
       <c r="F94" s="3">
-        <v>-21400</v>
+        <v>-70500</v>
       </c>
       <c r="G94" s="3">
-        <v>-19400</v>
+        <v>-20700</v>
       </c>
       <c r="H94" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+        <v>-18800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-14300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-24500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4700</v>
+        <v>-416200</v>
       </c>
       <c r="E100" s="3">
-        <v>-7400</v>
+        <v>-4600</v>
       </c>
       <c r="F100" s="3">
-        <v>-57200</v>
+        <v>-7100</v>
       </c>
       <c r="G100" s="3">
-        <v>-11100</v>
+        <v>-55500</v>
       </c>
       <c r="H100" s="3">
-        <v>-78100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>-10700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-75800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-94500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24100</v>
+        <v>25200</v>
       </c>
       <c r="E101" s="3">
-        <v>-9700</v>
+        <v>23400</v>
       </c>
       <c r="F101" s="3">
-        <v>3100</v>
+        <v>-9500</v>
       </c>
       <c r="G101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-8100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>171500</v>
+        <v>-504600</v>
       </c>
       <c r="E102" s="3">
-        <v>253600</v>
+        <v>166400</v>
       </c>
       <c r="F102" s="3">
-        <v>170900</v>
+        <v>246100</v>
       </c>
       <c r="G102" s="3">
-        <v>266700</v>
+        <v>165900</v>
       </c>
       <c r="H102" s="3">
+        <v>258800</v>
+      </c>
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>-185600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>ASTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>449900</v>
+        <v>410600</v>
       </c>
       <c r="E8" s="3">
-        <v>701400</v>
+        <v>433400</v>
       </c>
       <c r="F8" s="3">
-        <v>707200</v>
+        <v>675600</v>
       </c>
       <c r="G8" s="3">
-        <v>799600</v>
+        <v>681100</v>
       </c>
       <c r="H8" s="3">
-        <v>758500</v>
+        <v>770200</v>
       </c>
       <c r="I8" s="3">
-        <v>592500</v>
+        <v>730600</v>
       </c>
       <c r="J8" s="3">
+        <v>570700</v>
+      </c>
+      <c r="K8" s="3">
         <v>479400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>332700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>289000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>267900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>394300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>427500</v>
+        <v>441600</v>
       </c>
       <c r="E9" s="3">
-        <v>430800</v>
+        <v>411700</v>
       </c>
       <c r="F9" s="3">
-        <v>451700</v>
+        <v>415000</v>
       </c>
       <c r="G9" s="3">
-        <v>450400</v>
+        <v>435100</v>
       </c>
       <c r="H9" s="3">
-        <v>434900</v>
+        <v>433800</v>
       </c>
       <c r="I9" s="3">
-        <v>383500</v>
+        <v>418900</v>
       </c>
       <c r="J9" s="3">
+        <v>369400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1616700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>334400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>313600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>280000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1985700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22500</v>
+        <v>-31000</v>
       </c>
       <c r="E10" s="3">
-        <v>270500</v>
+        <v>21600</v>
       </c>
       <c r="F10" s="3">
-        <v>255400</v>
+        <v>260600</v>
       </c>
       <c r="G10" s="3">
-        <v>349200</v>
+        <v>246000</v>
       </c>
       <c r="H10" s="3">
-        <v>323600</v>
+        <v>336400</v>
       </c>
       <c r="I10" s="3">
-        <v>209000</v>
+        <v>311700</v>
       </c>
       <c r="J10" s="3">
+        <v>201300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-1137300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-24600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-12100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1591500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,78 +981,84 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>186100</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="3">
-        <v>4700</v>
+        <v>179300</v>
       </c>
       <c r="I14" s="3">
-        <v>2200</v>
+        <v>4600</v>
       </c>
       <c r="J14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-39600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-15900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-20700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>445700</v>
+        <v>458200</v>
       </c>
       <c r="E17" s="3">
-        <v>454400</v>
+        <v>429300</v>
       </c>
       <c r="F17" s="3">
-        <v>477700</v>
+        <v>437700</v>
       </c>
       <c r="G17" s="3">
-        <v>650800</v>
+        <v>460100</v>
       </c>
       <c r="H17" s="3">
-        <v>461300</v>
+        <v>626800</v>
       </c>
       <c r="I17" s="3">
-        <v>405300</v>
+        <v>444300</v>
       </c>
       <c r="J17" s="3">
+        <v>390400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1284000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>308000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>270000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1643800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4200</v>
+        <v>-47500</v>
       </c>
       <c r="E18" s="3">
-        <v>247000</v>
+        <v>4100</v>
       </c>
       <c r="F18" s="3">
-        <v>229500</v>
+        <v>237900</v>
       </c>
       <c r="G18" s="3">
-        <v>148800</v>
+        <v>221000</v>
       </c>
       <c r="H18" s="3">
-        <v>297200</v>
+        <v>143300</v>
       </c>
       <c r="I18" s="3">
-        <v>187200</v>
+        <v>286300</v>
       </c>
       <c r="J18" s="3">
+        <v>180300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-804600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>-18900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1249600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>65200</v>
+        <v>-15700</v>
       </c>
       <c r="E20" s="3">
-        <v>43400</v>
+        <v>62800</v>
       </c>
       <c r="F20" s="3">
-        <v>11900</v>
+        <v>41800</v>
       </c>
       <c r="G20" s="3">
-        <v>22500</v>
+        <v>11400</v>
       </c>
       <c r="H20" s="3">
-        <v>5300</v>
+        <v>21600</v>
       </c>
       <c r="I20" s="3">
-        <v>-12600</v>
+        <v>5100</v>
       </c>
       <c r="J20" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K20" s="3">
         <v>747500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-16600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1148400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>86200</v>
+        <v>-45300</v>
       </c>
       <c r="E21" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>296000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>248900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>180500</v>
+      </c>
+      <c r="I21" s="3">
         <v>307300</v>
       </c>
-      <c r="F21" s="3">
-        <v>258400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>187400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>319000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>190100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+      <c r="J21" s="3">
+        <v>183100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
-        <v>4400</v>
-      </c>
       <c r="H22" s="3">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="I22" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>7700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>10400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69200</v>
+        <v>-63200</v>
       </c>
       <c r="E23" s="3">
-        <v>290100</v>
+        <v>66600</v>
       </c>
       <c r="F23" s="3">
-        <v>241000</v>
+        <v>279400</v>
       </c>
       <c r="G23" s="3">
-        <v>166800</v>
+        <v>232100</v>
       </c>
       <c r="H23" s="3">
-        <v>294500</v>
+        <v>160700</v>
       </c>
       <c r="I23" s="3">
-        <v>166200</v>
+        <v>283600</v>
       </c>
       <c r="J23" s="3">
+        <v>160000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-57100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>-46000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-32700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-141500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>-12700</v>
       </c>
       <c r="E24" s="3">
-        <v>63700</v>
+        <v>3500</v>
       </c>
       <c r="F24" s="3">
-        <v>58000</v>
+        <v>61400</v>
       </c>
       <c r="G24" s="3">
-        <v>74500</v>
+        <v>55900</v>
       </c>
       <c r="H24" s="3">
-        <v>78100</v>
+        <v>71700</v>
       </c>
       <c r="I24" s="3">
-        <v>13300</v>
+        <v>75200</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+        <v>12800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-3400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>65500</v>
+        <v>-50500</v>
       </c>
       <c r="E26" s="3">
-        <v>226300</v>
+        <v>63100</v>
       </c>
       <c r="F26" s="3">
-        <v>182900</v>
+        <v>218000</v>
       </c>
       <c r="G26" s="3">
-        <v>92400</v>
+        <v>176200</v>
       </c>
       <c r="H26" s="3">
-        <v>216400</v>
+        <v>89000</v>
       </c>
       <c r="I26" s="3">
-        <v>152900</v>
+        <v>208400</v>
       </c>
       <c r="J26" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-57100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>-46000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-138100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>65500</v>
+        <v>-50500</v>
       </c>
       <c r="E27" s="3">
-        <v>226300</v>
+        <v>63100</v>
       </c>
       <c r="F27" s="3">
-        <v>182900</v>
+        <v>218000</v>
       </c>
       <c r="G27" s="3">
-        <v>92400</v>
+        <v>176200</v>
       </c>
       <c r="H27" s="3">
-        <v>216400</v>
+        <v>89000</v>
       </c>
       <c r="I27" s="3">
-        <v>152900</v>
+        <v>208400</v>
       </c>
       <c r="J27" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-57100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>-46000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-138100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-65200</v>
+        <v>15700</v>
       </c>
       <c r="E32" s="3">
-        <v>-43400</v>
+        <v>-62800</v>
       </c>
       <c r="F32" s="3">
-        <v>-11900</v>
+        <v>-41800</v>
       </c>
       <c r="G32" s="3">
-        <v>-22500</v>
+        <v>-11400</v>
       </c>
       <c r="H32" s="3">
-        <v>-5300</v>
+        <v>-21600</v>
       </c>
       <c r="I32" s="3">
-        <v>12600</v>
+        <v>-5100</v>
       </c>
       <c r="J32" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-747500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>16600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1148400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>65500</v>
+        <v>-50500</v>
       </c>
       <c r="E33" s="3">
-        <v>226300</v>
+        <v>63100</v>
       </c>
       <c r="F33" s="3">
-        <v>182900</v>
+        <v>218000</v>
       </c>
       <c r="G33" s="3">
-        <v>92400</v>
+        <v>176200</v>
       </c>
       <c r="H33" s="3">
-        <v>216400</v>
+        <v>89000</v>
       </c>
       <c r="I33" s="3">
-        <v>152900</v>
+        <v>208400</v>
       </c>
       <c r="J33" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-57100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>-46000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-32700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-138100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>65500</v>
+        <v>-50500</v>
       </c>
       <c r="E35" s="3">
-        <v>226300</v>
+        <v>63100</v>
       </c>
       <c r="F35" s="3">
-        <v>182900</v>
+        <v>218000</v>
       </c>
       <c r="G35" s="3">
-        <v>92400</v>
+        <v>176200</v>
       </c>
       <c r="H35" s="3">
-        <v>216400</v>
+        <v>89000</v>
       </c>
       <c r="I35" s="3">
-        <v>152900</v>
+        <v>208400</v>
       </c>
       <c r="J35" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-57100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>-46000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-32700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-138100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,31 +1966,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>349100</v>
+        <v>177000</v>
       </c>
       <c r="E41" s="3">
-        <v>853700</v>
+        <v>336200</v>
       </c>
       <c r="F41" s="3">
-        <v>687300</v>
+        <v>822200</v>
       </c>
       <c r="G41" s="3">
-        <v>441100</v>
+        <v>662000</v>
       </c>
       <c r="H41" s="3">
-        <v>275300</v>
+        <v>424900</v>
       </c>
       <c r="I41" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+        <v>265100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>15800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,31 +2052,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>215700</v>
+        <v>190700</v>
       </c>
       <c r="E43" s="3">
-        <v>245400</v>
+        <v>207800</v>
       </c>
       <c r="F43" s="3">
-        <v>302100</v>
+        <v>236300</v>
       </c>
       <c r="G43" s="3">
-        <v>341600</v>
+        <v>291000</v>
       </c>
       <c r="H43" s="3">
-        <v>334700</v>
+        <v>329100</v>
       </c>
       <c r="I43" s="3">
-        <v>250200</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+        <v>322300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>241000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -2004,31 +2096,34 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>650500</v>
+        <v>659700</v>
       </c>
       <c r="E44" s="3">
-        <v>478800</v>
+        <v>626600</v>
       </c>
       <c r="F44" s="3">
-        <v>360400</v>
+        <v>461200</v>
       </c>
       <c r="G44" s="3">
-        <v>462200</v>
+        <v>347100</v>
       </c>
       <c r="H44" s="3">
-        <v>364900</v>
+        <v>445200</v>
       </c>
       <c r="I44" s="3">
-        <v>352500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+        <v>351500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>339600</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2045,31 +2140,34 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>91800</v>
+        <v>74900</v>
       </c>
       <c r="E45" s="3">
-        <v>83600</v>
+        <v>88400</v>
       </c>
       <c r="F45" s="3">
-        <v>89300</v>
+        <v>80500</v>
       </c>
       <c r="G45" s="3">
-        <v>108600</v>
+        <v>86000</v>
       </c>
       <c r="H45" s="3">
-        <v>126300</v>
+        <v>104600</v>
       </c>
       <c r="I45" s="3">
-        <v>131400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>121600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>126600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2086,31 +2184,34 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1307200</v>
+        <v>1102300</v>
       </c>
       <c r="E46" s="3">
-        <v>1661400</v>
+        <v>1259100</v>
       </c>
       <c r="F46" s="3">
-        <v>1439000</v>
+        <v>1600300</v>
       </c>
       <c r="G46" s="3">
-        <v>1353600</v>
+        <v>1386100</v>
       </c>
       <c r="H46" s="3">
-        <v>1101100</v>
+        <v>1303700</v>
       </c>
       <c r="I46" s="3">
-        <v>750600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>1060600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>722900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,20 +2242,20 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+        <v>1600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2168,31 +2272,34 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>730100</v>
+        <v>739400</v>
       </c>
       <c r="E48" s="3">
-        <v>641600</v>
+        <v>703200</v>
       </c>
       <c r="F48" s="3">
-        <v>580900</v>
+        <v>618000</v>
       </c>
       <c r="G48" s="3">
-        <v>535800</v>
+        <v>559600</v>
       </c>
       <c r="H48" s="3">
-        <v>533200</v>
+        <v>516100</v>
       </c>
       <c r="I48" s="3">
-        <v>516100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+        <v>513600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>497100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -2209,31 +2316,34 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1100</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>1000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,31 +2448,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
-        <v>2100</v>
-      </c>
       <c r="H52" s="3">
-        <v>4100</v>
+        <v>2000</v>
       </c>
       <c r="I52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+        <v>3900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,31 +2536,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2039300</v>
+        <v>1843500</v>
       </c>
       <c r="E54" s="3">
-        <v>2305500</v>
+        <v>1964300</v>
       </c>
       <c r="F54" s="3">
-        <v>2022500</v>
+        <v>2220600</v>
       </c>
       <c r="G54" s="3">
-        <v>1892700</v>
+        <v>1948100</v>
       </c>
       <c r="H54" s="3">
-        <v>1641200</v>
+        <v>1823000</v>
       </c>
       <c r="I54" s="3">
-        <v>1274400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+        <v>1580700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1227400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,31 +2618,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>69600</v>
+        <v>40900</v>
       </c>
       <c r="E57" s="3">
-        <v>445200</v>
+        <v>67000</v>
       </c>
       <c r="F57" s="3">
-        <v>41000</v>
+        <v>428800</v>
       </c>
       <c r="G57" s="3">
-        <v>80900</v>
+        <v>39500</v>
       </c>
       <c r="H57" s="3">
-        <v>77000</v>
+        <v>78000</v>
       </c>
       <c r="I57" s="3">
-        <v>51100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+        <v>74100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>49300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2530,31 +2660,34 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7900</v>
+        <v>16200</v>
       </c>
       <c r="E58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3">
-        <v>5600</v>
+        <v>7300</v>
       </c>
       <c r="H58" s="3">
-        <v>15100</v>
+        <v>5400</v>
       </c>
       <c r="I58" s="3">
-        <v>12400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>14500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2571,31 +2704,34 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>288600</v>
+        <v>243500</v>
       </c>
       <c r="E59" s="3">
-        <v>344000</v>
+        <v>278000</v>
       </c>
       <c r="F59" s="3">
-        <v>355000</v>
+        <v>331300</v>
       </c>
       <c r="G59" s="3">
-        <v>685500</v>
+        <v>341900</v>
       </c>
       <c r="H59" s="3">
-        <v>208700</v>
+        <v>660300</v>
       </c>
       <c r="I59" s="3">
-        <v>186100</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+        <v>201000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>179200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2612,31 +2748,34 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>366100</v>
+        <v>300600</v>
       </c>
       <c r="E60" s="3">
-        <v>796900</v>
+        <v>352600</v>
       </c>
       <c r="F60" s="3">
-        <v>403600</v>
+        <v>767600</v>
       </c>
       <c r="G60" s="3">
-        <v>772100</v>
+        <v>388700</v>
       </c>
       <c r="H60" s="3">
-        <v>300700</v>
+        <v>743700</v>
       </c>
       <c r="I60" s="3">
-        <v>249600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+        <v>289600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>240400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2653,31 +2792,34 @@
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>69700</v>
+        <v>70900</v>
       </c>
       <c r="E61" s="3">
-        <v>63800</v>
+        <v>67100</v>
       </c>
       <c r="F61" s="3">
-        <v>64000</v>
+        <v>61500</v>
       </c>
       <c r="G61" s="3">
-        <v>64000</v>
+        <v>61600</v>
       </c>
       <c r="H61" s="3">
-        <v>392500</v>
+        <v>61600</v>
       </c>
       <c r="I61" s="3">
-        <v>386800</v>
+        <v>378000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>372500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2694,31 +2836,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>450900</v>
+        <v>408800</v>
       </c>
       <c r="E62" s="3">
-        <v>400200</v>
+        <v>434300</v>
       </c>
       <c r="F62" s="3">
-        <v>366600</v>
+        <v>385500</v>
       </c>
       <c r="G62" s="3">
-        <v>416700</v>
+        <v>353100</v>
       </c>
       <c r="H62" s="3">
-        <v>387500</v>
+        <v>401300</v>
       </c>
       <c r="I62" s="3">
-        <v>366000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>373300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>352500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>886700</v>
+        <v>780400</v>
       </c>
       <c r="E66" s="3">
-        <v>1260900</v>
+        <v>854100</v>
       </c>
       <c r="F66" s="3">
-        <v>834200</v>
+        <v>1214500</v>
       </c>
       <c r="G66" s="3">
-        <v>1252700</v>
+        <v>803500</v>
       </c>
       <c r="H66" s="3">
-        <v>1080700</v>
+        <v>1206600</v>
       </c>
       <c r="I66" s="3">
-        <v>1002300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+        <v>1040900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>965400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,31 +3250,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>237300</v>
+        <v>173300</v>
       </c>
       <c r="E72" s="3">
-        <v>212000</v>
+        <v>228500</v>
       </c>
       <c r="F72" s="3">
-        <v>58400</v>
+        <v>204200</v>
       </c>
       <c r="G72" s="3">
-        <v>-117500</v>
+        <v>56300</v>
       </c>
       <c r="H72" s="3">
-        <v>182300</v>
+        <v>-113200</v>
       </c>
       <c r="I72" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+        <v>175600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-33100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1152600</v>
+        <v>1063100</v>
       </c>
       <c r="E76" s="3">
-        <v>1044600</v>
+        <v>1110200</v>
       </c>
       <c r="F76" s="3">
-        <v>1188300</v>
+        <v>1006100</v>
       </c>
       <c r="G76" s="3">
-        <v>640000</v>
+        <v>1144600</v>
       </c>
       <c r="H76" s="3">
-        <v>560400</v>
+        <v>616400</v>
       </c>
       <c r="I76" s="3">
-        <v>272000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+        <v>539800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>262000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>65500</v>
+        <v>-50500</v>
       </c>
       <c r="E81" s="3">
-        <v>226300</v>
+        <v>63100</v>
       </c>
       <c r="F81" s="3">
-        <v>182900</v>
+        <v>218000</v>
       </c>
       <c r="G81" s="3">
-        <v>92400</v>
+        <v>176200</v>
       </c>
       <c r="H81" s="3">
-        <v>216400</v>
+        <v>89000</v>
       </c>
       <c r="I81" s="3">
-        <v>152900</v>
+        <v>208400</v>
       </c>
       <c r="J81" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-57100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>-46000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-32700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-138100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16800</v>
+        <v>17900</v>
       </c>
       <c r="E83" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="F83" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="G83" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="H83" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="I83" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>16000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>32700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-49600</v>
+        <v>-93000</v>
       </c>
       <c r="E89" s="3">
-        <v>207700</v>
+        <v>-47800</v>
       </c>
       <c r="F89" s="3">
-        <v>333200</v>
+        <v>200000</v>
       </c>
       <c r="G89" s="3">
-        <v>239100</v>
+        <v>321000</v>
       </c>
       <c r="H89" s="3">
-        <v>285400</v>
+        <v>230300</v>
       </c>
       <c r="I89" s="3">
-        <v>90900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+        <v>274900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>87600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>-58600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-64000</v>
+        <v>-61900</v>
       </c>
       <c r="E91" s="3">
-        <v>-60100</v>
+        <v>-61600</v>
       </c>
       <c r="F91" s="3">
-        <v>-69500</v>
+        <v>-57900</v>
       </c>
       <c r="G91" s="3">
-        <v>-22200</v>
+        <v>-67000</v>
       </c>
       <c r="H91" s="3">
-        <v>-18700</v>
+        <v>-21400</v>
       </c>
       <c r="I91" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+        <v>-18000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-13800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-23600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-64000</v>
+        <v>-61900</v>
       </c>
       <c r="E94" s="3">
-        <v>-60100</v>
+        <v>-61600</v>
       </c>
       <c r="F94" s="3">
-        <v>-70500</v>
+        <v>-57900</v>
       </c>
       <c r="G94" s="3">
-        <v>-20700</v>
+        <v>-67900</v>
       </c>
       <c r="H94" s="3">
-        <v>-18800</v>
+        <v>-20000</v>
       </c>
       <c r="I94" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-18200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-13800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-24500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,13 +4147,14 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-416200</v>
+        <v>-700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4600</v>
+        <v>-400900</v>
       </c>
       <c r="F100" s="3">
-        <v>-7100</v>
+        <v>-4400</v>
       </c>
       <c r="G100" s="3">
-        <v>-55500</v>
+        <v>-6900</v>
       </c>
       <c r="H100" s="3">
-        <v>-10700</v>
+        <v>-53400</v>
       </c>
       <c r="I100" s="3">
-        <v>-75800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-10300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-73000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-94500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25200</v>
+        <v>-3600</v>
       </c>
       <c r="E101" s="3">
-        <v>23400</v>
+        <v>24300</v>
       </c>
       <c r="F101" s="3">
-        <v>-9500</v>
+        <v>22600</v>
       </c>
       <c r="G101" s="3">
-        <v>3000</v>
+        <v>-9100</v>
       </c>
       <c r="H101" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-8100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-504600</v>
+        <v>-159300</v>
       </c>
       <c r="E102" s="3">
-        <v>166400</v>
+        <v>-486000</v>
       </c>
       <c r="F102" s="3">
-        <v>246100</v>
+        <v>160300</v>
       </c>
       <c r="G102" s="3">
-        <v>165900</v>
+        <v>237100</v>
       </c>
       <c r="H102" s="3">
-        <v>258800</v>
+        <v>159800</v>
       </c>
       <c r="I102" s="3">
+        <v>249300</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-185600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>410600</v>
+        <v>420600</v>
       </c>
       <c r="E8" s="3">
-        <v>433400</v>
+        <v>443900</v>
       </c>
       <c r="F8" s="3">
-        <v>675600</v>
+        <v>691900</v>
       </c>
       <c r="G8" s="3">
-        <v>681100</v>
+        <v>697600</v>
       </c>
       <c r="H8" s="3">
-        <v>770200</v>
+        <v>788800</v>
       </c>
       <c r="I8" s="3">
-        <v>730600</v>
+        <v>748300</v>
       </c>
       <c r="J8" s="3">
-        <v>570700</v>
+        <v>584500</v>
       </c>
       <c r="K8" s="3">
         <v>479400</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>441600</v>
+        <v>452300</v>
       </c>
       <c r="E9" s="3">
-        <v>411700</v>
+        <v>421700</v>
       </c>
       <c r="F9" s="3">
-        <v>415000</v>
+        <v>425000</v>
       </c>
       <c r="G9" s="3">
-        <v>435100</v>
+        <v>445600</v>
       </c>
       <c r="H9" s="3">
-        <v>433800</v>
+        <v>444300</v>
       </c>
       <c r="I9" s="3">
-        <v>418900</v>
+        <v>429000</v>
       </c>
       <c r="J9" s="3">
-        <v>369400</v>
+        <v>378400</v>
       </c>
       <c r="K9" s="3">
         <v>1616700</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-31000</v>
+        <v>-31700</v>
       </c>
       <c r="E10" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="F10" s="3">
-        <v>260600</v>
+        <v>266900</v>
       </c>
       <c r="G10" s="3">
-        <v>246000</v>
+        <v>252000</v>
       </c>
       <c r="H10" s="3">
-        <v>336400</v>
+        <v>344500</v>
       </c>
       <c r="I10" s="3">
-        <v>311700</v>
+        <v>319300</v>
       </c>
       <c r="J10" s="3">
-        <v>201300</v>
+        <v>206100</v>
       </c>
       <c r="K10" s="3">
         <v>-1137300</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H14" s="3">
-        <v>179300</v>
+        <v>183600</v>
       </c>
       <c r="I14" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J14" s="3">
         <v>2100</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>458200</v>
+        <v>469300</v>
       </c>
       <c r="E17" s="3">
-        <v>429300</v>
+        <v>439700</v>
       </c>
       <c r="F17" s="3">
-        <v>437700</v>
+        <v>448300</v>
       </c>
       <c r="G17" s="3">
-        <v>460100</v>
+        <v>471300</v>
       </c>
       <c r="H17" s="3">
-        <v>626800</v>
+        <v>642000</v>
       </c>
       <c r="I17" s="3">
-        <v>444300</v>
+        <v>455100</v>
       </c>
       <c r="J17" s="3">
-        <v>390400</v>
+        <v>399900</v>
       </c>
       <c r="K17" s="3">
         <v>1284000</v>
@@ -1122,25 +1122,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47500</v>
+        <v>-48700</v>
       </c>
       <c r="E18" s="3">
         <v>4100</v>
       </c>
       <c r="F18" s="3">
-        <v>237900</v>
+        <v>243600</v>
       </c>
       <c r="G18" s="3">
-        <v>221000</v>
+        <v>226400</v>
       </c>
       <c r="H18" s="3">
-        <v>143300</v>
+        <v>146800</v>
       </c>
       <c r="I18" s="3">
-        <v>286300</v>
+        <v>293200</v>
       </c>
       <c r="J18" s="3">
-        <v>180300</v>
+        <v>184700</v>
       </c>
       <c r="K18" s="3">
         <v>-804600</v>
@@ -1184,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15700</v>
+        <v>-16100</v>
       </c>
       <c r="E20" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="F20" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="G20" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="H20" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="I20" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="K20" s="3">
         <v>747500</v>
@@ -1228,25 +1228,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-45300</v>
+        <v>-46400</v>
       </c>
       <c r="E21" s="3">
-        <v>83000</v>
+        <v>85000</v>
       </c>
       <c r="F21" s="3">
-        <v>296000</v>
+        <v>303200</v>
       </c>
       <c r="G21" s="3">
-        <v>248900</v>
+        <v>254900</v>
       </c>
       <c r="H21" s="3">
-        <v>180500</v>
+        <v>184900</v>
       </c>
       <c r="I21" s="3">
-        <v>307300</v>
+        <v>314700</v>
       </c>
       <c r="J21" s="3">
-        <v>183100</v>
+        <v>187600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1284,13 +1284,13 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I22" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="J22" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-63200</v>
+        <v>-64700</v>
       </c>
       <c r="E23" s="3">
-        <v>66600</v>
+        <v>68200</v>
       </c>
       <c r="F23" s="3">
-        <v>279400</v>
+        <v>286100</v>
       </c>
       <c r="G23" s="3">
-        <v>232100</v>
+        <v>237700</v>
       </c>
       <c r="H23" s="3">
-        <v>160700</v>
+        <v>164600</v>
       </c>
       <c r="I23" s="3">
-        <v>283600</v>
+        <v>290500</v>
       </c>
       <c r="J23" s="3">
-        <v>160000</v>
+        <v>163900</v>
       </c>
       <c r="K23" s="3">
         <v>-57100</v>
@@ -1360,25 +1360,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="E24" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F24" s="3">
-        <v>61400</v>
+        <v>62900</v>
       </c>
       <c r="G24" s="3">
-        <v>55900</v>
+        <v>57300</v>
       </c>
       <c r="H24" s="3">
-        <v>71700</v>
+        <v>73500</v>
       </c>
       <c r="I24" s="3">
-        <v>75200</v>
+        <v>77000</v>
       </c>
       <c r="J24" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50500</v>
+        <v>-51700</v>
       </c>
       <c r="E26" s="3">
-        <v>63100</v>
+        <v>64600</v>
       </c>
       <c r="F26" s="3">
-        <v>218000</v>
+        <v>223300</v>
       </c>
       <c r="G26" s="3">
-        <v>176200</v>
+        <v>180400</v>
       </c>
       <c r="H26" s="3">
-        <v>89000</v>
+        <v>91100</v>
       </c>
       <c r="I26" s="3">
-        <v>208400</v>
+        <v>213500</v>
       </c>
       <c r="J26" s="3">
-        <v>147200</v>
+        <v>150800</v>
       </c>
       <c r="K26" s="3">
         <v>-57100</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50500</v>
+        <v>-51700</v>
       </c>
       <c r="E27" s="3">
-        <v>63100</v>
+        <v>64600</v>
       </c>
       <c r="F27" s="3">
-        <v>218000</v>
+        <v>223300</v>
       </c>
       <c r="G27" s="3">
-        <v>176200</v>
+        <v>180400</v>
       </c>
       <c r="H27" s="3">
-        <v>89000</v>
+        <v>91100</v>
       </c>
       <c r="I27" s="3">
-        <v>208400</v>
+        <v>213500</v>
       </c>
       <c r="J27" s="3">
-        <v>147200</v>
+        <v>150800</v>
       </c>
       <c r="K27" s="3">
         <v>-57100</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="E32" s="3">
-        <v>-62800</v>
+        <v>-64300</v>
       </c>
       <c r="F32" s="3">
-        <v>-41800</v>
+        <v>-42800</v>
       </c>
       <c r="G32" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="H32" s="3">
-        <v>-21600</v>
+        <v>-22100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="K32" s="3">
         <v>-747500</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50500</v>
+        <v>-51700</v>
       </c>
       <c r="E33" s="3">
-        <v>63100</v>
+        <v>64600</v>
       </c>
       <c r="F33" s="3">
-        <v>218000</v>
+        <v>223300</v>
       </c>
       <c r="G33" s="3">
-        <v>176200</v>
+        <v>180400</v>
       </c>
       <c r="H33" s="3">
-        <v>89000</v>
+        <v>91100</v>
       </c>
       <c r="I33" s="3">
-        <v>208400</v>
+        <v>213500</v>
       </c>
       <c r="J33" s="3">
-        <v>147200</v>
+        <v>150800</v>
       </c>
       <c r="K33" s="3">
         <v>-57100</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50500</v>
+        <v>-51700</v>
       </c>
       <c r="E35" s="3">
-        <v>63100</v>
+        <v>64600</v>
       </c>
       <c r="F35" s="3">
-        <v>218000</v>
+        <v>223300</v>
       </c>
       <c r="G35" s="3">
-        <v>176200</v>
+        <v>180400</v>
       </c>
       <c r="H35" s="3">
-        <v>89000</v>
+        <v>91100</v>
       </c>
       <c r="I35" s="3">
-        <v>208400</v>
+        <v>213500</v>
       </c>
       <c r="J35" s="3">
-        <v>147200</v>
+        <v>150800</v>
       </c>
       <c r="K35" s="3">
         <v>-57100</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>177000</v>
+        <v>181300</v>
       </c>
       <c r="E41" s="3">
-        <v>336200</v>
+        <v>344400</v>
       </c>
       <c r="F41" s="3">
-        <v>822200</v>
+        <v>842100</v>
       </c>
       <c r="G41" s="3">
-        <v>662000</v>
+        <v>678000</v>
       </c>
       <c r="H41" s="3">
-        <v>424900</v>
+        <v>435200</v>
       </c>
       <c r="I41" s="3">
-        <v>265100</v>
+        <v>271600</v>
       </c>
       <c r="J41" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -2061,25 +2061,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190700</v>
+        <v>195300</v>
       </c>
       <c r="E43" s="3">
-        <v>207800</v>
+        <v>212800</v>
       </c>
       <c r="F43" s="3">
-        <v>236300</v>
+        <v>242100</v>
       </c>
       <c r="G43" s="3">
-        <v>291000</v>
+        <v>298000</v>
       </c>
       <c r="H43" s="3">
-        <v>329100</v>
+        <v>337000</v>
       </c>
       <c r="I43" s="3">
-        <v>322300</v>
+        <v>330100</v>
       </c>
       <c r="J43" s="3">
-        <v>241000</v>
+        <v>246800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -2105,25 +2105,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>659700</v>
+        <v>675700</v>
       </c>
       <c r="E44" s="3">
-        <v>626600</v>
+        <v>641800</v>
       </c>
       <c r="F44" s="3">
-        <v>461200</v>
+        <v>472400</v>
       </c>
       <c r="G44" s="3">
-        <v>347100</v>
+        <v>355600</v>
       </c>
       <c r="H44" s="3">
-        <v>445200</v>
+        <v>456000</v>
       </c>
       <c r="I44" s="3">
-        <v>351500</v>
+        <v>360000</v>
       </c>
       <c r="J44" s="3">
-        <v>339600</v>
+        <v>347800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74900</v>
+        <v>76700</v>
       </c>
       <c r="E45" s="3">
-        <v>88400</v>
+        <v>90600</v>
       </c>
       <c r="F45" s="3">
-        <v>80500</v>
+        <v>82400</v>
       </c>
       <c r="G45" s="3">
-        <v>86000</v>
+        <v>88100</v>
       </c>
       <c r="H45" s="3">
-        <v>104600</v>
+        <v>107100</v>
       </c>
       <c r="I45" s="3">
-        <v>121600</v>
+        <v>124600</v>
       </c>
       <c r="J45" s="3">
-        <v>126600</v>
+        <v>129600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1102300</v>
+        <v>1129000</v>
       </c>
       <c r="E46" s="3">
-        <v>1259100</v>
+        <v>1289600</v>
       </c>
       <c r="F46" s="3">
-        <v>1600300</v>
+        <v>1639000</v>
       </c>
       <c r="G46" s="3">
-        <v>1386100</v>
+        <v>1419600</v>
       </c>
       <c r="H46" s="3">
-        <v>1303700</v>
+        <v>1335300</v>
       </c>
       <c r="I46" s="3">
-        <v>1060600</v>
+        <v>1086300</v>
       </c>
       <c r="J46" s="3">
-        <v>722900</v>
+        <v>740400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -2255,7 +2255,7 @@
         <v>1600</v>
       </c>
       <c r="J47" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>739400</v>
+        <v>757300</v>
       </c>
       <c r="E48" s="3">
-        <v>703200</v>
+        <v>720200</v>
       </c>
       <c r="F48" s="3">
-        <v>618000</v>
+        <v>633000</v>
       </c>
       <c r="G48" s="3">
-        <v>559600</v>
+        <v>573100</v>
       </c>
       <c r="H48" s="3">
-        <v>516100</v>
+        <v>528600</v>
       </c>
       <c r="I48" s="3">
-        <v>513600</v>
+        <v>526000</v>
       </c>
       <c r="J48" s="3">
-        <v>497100</v>
+        <v>509200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -2460,22 +2460,22 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
       <c r="H52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I52" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1843500</v>
+        <v>1888100</v>
       </c>
       <c r="E54" s="3">
-        <v>1964300</v>
+        <v>2011800</v>
       </c>
       <c r="F54" s="3">
-        <v>2220600</v>
+        <v>2274400</v>
       </c>
       <c r="G54" s="3">
-        <v>1948100</v>
+        <v>1995300</v>
       </c>
       <c r="H54" s="3">
-        <v>1823000</v>
+        <v>1867200</v>
       </c>
       <c r="I54" s="3">
-        <v>1580700</v>
+        <v>1619000</v>
       </c>
       <c r="J54" s="3">
-        <v>1227400</v>
+        <v>1257200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="E57" s="3">
-        <v>67000</v>
+        <v>68700</v>
       </c>
       <c r="F57" s="3">
-        <v>428800</v>
+        <v>439200</v>
       </c>
       <c r="G57" s="3">
-        <v>39500</v>
+        <v>40400</v>
       </c>
       <c r="H57" s="3">
-        <v>78000</v>
+        <v>79900</v>
       </c>
       <c r="I57" s="3">
-        <v>74100</v>
+        <v>75900</v>
       </c>
       <c r="J57" s="3">
-        <v>49300</v>
+        <v>50400</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2669,25 +2669,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="E58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
-        <v>7400</v>
-      </c>
       <c r="G58" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="H58" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I58" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="J58" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>243500</v>
+        <v>249400</v>
       </c>
       <c r="E59" s="3">
-        <v>278000</v>
+        <v>284700</v>
       </c>
       <c r="F59" s="3">
-        <v>331300</v>
+        <v>339300</v>
       </c>
       <c r="G59" s="3">
-        <v>341900</v>
+        <v>350200</v>
       </c>
       <c r="H59" s="3">
-        <v>660300</v>
+        <v>676300</v>
       </c>
       <c r="I59" s="3">
-        <v>201000</v>
+        <v>205900</v>
       </c>
       <c r="J59" s="3">
-        <v>179200</v>
+        <v>183600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300600</v>
+        <v>307900</v>
       </c>
       <c r="E60" s="3">
-        <v>352600</v>
+        <v>361200</v>
       </c>
       <c r="F60" s="3">
-        <v>767600</v>
+        <v>786100</v>
       </c>
       <c r="G60" s="3">
-        <v>388700</v>
+        <v>398100</v>
       </c>
       <c r="H60" s="3">
-        <v>743700</v>
+        <v>761700</v>
       </c>
       <c r="I60" s="3">
-        <v>289600</v>
+        <v>296700</v>
       </c>
       <c r="J60" s="3">
-        <v>240400</v>
+        <v>246200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2801,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70900</v>
+        <v>72700</v>
       </c>
       <c r="E61" s="3">
-        <v>67100</v>
+        <v>68700</v>
       </c>
       <c r="F61" s="3">
-        <v>61500</v>
+        <v>63000</v>
       </c>
       <c r="G61" s="3">
-        <v>61600</v>
+        <v>63100</v>
       </c>
       <c r="H61" s="3">
-        <v>61600</v>
+        <v>63100</v>
       </c>
       <c r="I61" s="3">
-        <v>378000</v>
+        <v>387200</v>
       </c>
       <c r="J61" s="3">
-        <v>372500</v>
+        <v>381600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>408800</v>
+        <v>418700</v>
       </c>
       <c r="E62" s="3">
-        <v>434300</v>
+        <v>444800</v>
       </c>
       <c r="F62" s="3">
-        <v>385500</v>
+        <v>394800</v>
       </c>
       <c r="G62" s="3">
-        <v>353100</v>
+        <v>361700</v>
       </c>
       <c r="H62" s="3">
-        <v>401300</v>
+        <v>411000</v>
       </c>
       <c r="I62" s="3">
-        <v>373300</v>
+        <v>382300</v>
       </c>
       <c r="J62" s="3">
-        <v>352500</v>
+        <v>361000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>780400</v>
+        <v>799300</v>
       </c>
       <c r="E66" s="3">
-        <v>854100</v>
+        <v>874700</v>
       </c>
       <c r="F66" s="3">
-        <v>1214500</v>
+        <v>1243900</v>
       </c>
       <c r="G66" s="3">
-        <v>803500</v>
+        <v>823000</v>
       </c>
       <c r="H66" s="3">
-        <v>1206600</v>
+        <v>1235900</v>
       </c>
       <c r="I66" s="3">
-        <v>1040900</v>
+        <v>1066100</v>
       </c>
       <c r="J66" s="3">
-        <v>965400</v>
+        <v>988800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>173300</v>
+        <v>177500</v>
       </c>
       <c r="E72" s="3">
-        <v>228500</v>
+        <v>234100</v>
       </c>
       <c r="F72" s="3">
-        <v>204200</v>
+        <v>209100</v>
       </c>
       <c r="G72" s="3">
-        <v>56300</v>
+        <v>57600</v>
       </c>
       <c r="H72" s="3">
-        <v>-113200</v>
+        <v>-115900</v>
       </c>
       <c r="I72" s="3">
-        <v>175600</v>
+        <v>179900</v>
       </c>
       <c r="J72" s="3">
-        <v>-33100</v>
+        <v>-33900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1063100</v>
+        <v>1088800</v>
       </c>
       <c r="E76" s="3">
-        <v>1110200</v>
+        <v>1137100</v>
       </c>
       <c r="F76" s="3">
-        <v>1006100</v>
+        <v>1030500</v>
       </c>
       <c r="G76" s="3">
-        <v>1144600</v>
+        <v>1172300</v>
       </c>
       <c r="H76" s="3">
-        <v>616400</v>
+        <v>631300</v>
       </c>
       <c r="I76" s="3">
-        <v>539800</v>
+        <v>552900</v>
       </c>
       <c r="J76" s="3">
-        <v>262000</v>
+        <v>268400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50500</v>
+        <v>-51700</v>
       </c>
       <c r="E81" s="3">
-        <v>63100</v>
+        <v>64600</v>
       </c>
       <c r="F81" s="3">
-        <v>218000</v>
+        <v>223300</v>
       </c>
       <c r="G81" s="3">
-        <v>176200</v>
+        <v>180400</v>
       </c>
       <c r="H81" s="3">
-        <v>89000</v>
+        <v>91100</v>
       </c>
       <c r="I81" s="3">
-        <v>208400</v>
+        <v>213500</v>
       </c>
       <c r="J81" s="3">
-        <v>147200</v>
+        <v>150800</v>
       </c>
       <c r="K81" s="3">
         <v>-57100</v>
@@ -3634,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17900</v>
+        <v>18300</v>
       </c>
       <c r="E83" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="F83" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="G83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I83" s="3">
         <v>16400</v>
       </c>
-      <c r="H83" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>16000</v>
-      </c>
       <c r="J83" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-93000</v>
+        <v>-95300</v>
       </c>
       <c r="E89" s="3">
-        <v>-47800</v>
+        <v>-49000</v>
       </c>
       <c r="F89" s="3">
-        <v>200000</v>
+        <v>204900</v>
       </c>
       <c r="G89" s="3">
-        <v>321000</v>
+        <v>328700</v>
       </c>
       <c r="H89" s="3">
-        <v>230300</v>
+        <v>235900</v>
       </c>
       <c r="I89" s="3">
-        <v>274900</v>
+        <v>281600</v>
       </c>
       <c r="J89" s="3">
-        <v>87600</v>
+        <v>89700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3960,25 +3960,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61900</v>
+        <v>-85600</v>
       </c>
       <c r="E91" s="3">
-        <v>-61600</v>
+        <v>-85200</v>
       </c>
       <c r="F91" s="3">
-        <v>-57900</v>
+        <v>-80100</v>
       </c>
       <c r="G91" s="3">
-        <v>-67000</v>
+        <v>-92200</v>
       </c>
       <c r="H91" s="3">
-        <v>-21400</v>
+        <v>-29800</v>
       </c>
       <c r="I91" s="3">
-        <v>-18000</v>
+        <v>-25100</v>
       </c>
       <c r="J91" s="3">
-        <v>-13800</v>
+        <v>-19100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-61900</v>
+        <v>-63400</v>
       </c>
       <c r="E94" s="3">
-        <v>-61600</v>
+        <v>-63100</v>
       </c>
       <c r="F94" s="3">
-        <v>-57900</v>
+        <v>-59300</v>
       </c>
       <c r="G94" s="3">
-        <v>-67900</v>
+        <v>-69600</v>
       </c>
       <c r="H94" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="I94" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="J94" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4154,7 +4154,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4333,22 +4333,22 @@
         <v>-700</v>
       </c>
       <c r="E100" s="3">
-        <v>-400900</v>
+        <v>-410600</v>
       </c>
       <c r="F100" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G100" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H100" s="3">
-        <v>-53400</v>
+        <v>-54700</v>
       </c>
       <c r="I100" s="3">
-        <v>-10300</v>
+        <v>-10600</v>
       </c>
       <c r="J100" s="3">
-        <v>-73000</v>
+        <v>-74800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4374,22 +4374,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
-        <v>24300</v>
+        <v>24900</v>
       </c>
       <c r="F101" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="G101" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="H101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -4418,22 +4418,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-159300</v>
+        <v>-163100</v>
       </c>
       <c r="E102" s="3">
-        <v>-486000</v>
+        <v>-497800</v>
       </c>
       <c r="F102" s="3">
-        <v>160300</v>
+        <v>164100</v>
       </c>
       <c r="G102" s="3">
-        <v>237100</v>
+        <v>242800</v>
       </c>
       <c r="H102" s="3">
-        <v>159800</v>
+        <v>163600</v>
       </c>
       <c r="I102" s="3">
-        <v>249300</v>
+        <v>255300</v>
       </c>
       <c r="J102" s="3">
         <v>500</v>

--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>ASTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>420600</v>
+        <v>501500</v>
       </c>
       <c r="E8" s="3">
-        <v>443900</v>
+        <v>420400</v>
       </c>
       <c r="F8" s="3">
-        <v>691900</v>
+        <v>443600</v>
       </c>
       <c r="G8" s="3">
-        <v>697600</v>
+        <v>691600</v>
       </c>
       <c r="H8" s="3">
-        <v>788800</v>
+        <v>697300</v>
       </c>
       <c r="I8" s="3">
-        <v>748300</v>
+        <v>788400</v>
       </c>
       <c r="J8" s="3">
+        <v>747900</v>
+      </c>
+      <c r="K8" s="3">
         <v>584500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>479400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>332700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>289000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>267900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>394300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>452300</v>
+        <v>464800</v>
       </c>
       <c r="E9" s="3">
-        <v>421700</v>
+        <v>452100</v>
       </c>
       <c r="F9" s="3">
-        <v>425000</v>
+        <v>421500</v>
       </c>
       <c r="G9" s="3">
-        <v>445600</v>
+        <v>424800</v>
       </c>
       <c r="H9" s="3">
-        <v>444300</v>
+        <v>445400</v>
       </c>
       <c r="I9" s="3">
-        <v>429000</v>
+        <v>444100</v>
       </c>
       <c r="J9" s="3">
+        <v>428800</v>
+      </c>
+      <c r="K9" s="3">
         <v>378400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1616700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>334400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>313600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>280000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1985700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-31700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22100</v>
       </c>
-      <c r="F10" s="3">
-        <v>266900</v>
-      </c>
       <c r="G10" s="3">
-        <v>252000</v>
+        <v>266800</v>
       </c>
       <c r="H10" s="3">
-        <v>344500</v>
+        <v>251900</v>
       </c>
       <c r="I10" s="3">
-        <v>319300</v>
+        <v>344300</v>
       </c>
       <c r="J10" s="3">
+        <v>319100</v>
+      </c>
+      <c r="K10" s="3">
         <v>206100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1137300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-24600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-12100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1591500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,48 +1004,51 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
-        <v>183600</v>
-      </c>
       <c r="I14" s="3">
+        <v>183500</v>
+      </c>
+      <c r="J14" s="3">
         <v>4700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-39600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-15900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-20700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1033,32 +1056,35 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>469300</v>
+        <v>485500</v>
       </c>
       <c r="E17" s="3">
-        <v>439700</v>
+        <v>469000</v>
       </c>
       <c r="F17" s="3">
-        <v>448300</v>
+        <v>439500</v>
       </c>
       <c r="G17" s="3">
-        <v>471300</v>
+        <v>448100</v>
       </c>
       <c r="H17" s="3">
-        <v>642000</v>
+        <v>471000</v>
       </c>
       <c r="I17" s="3">
-        <v>455100</v>
+        <v>641700</v>
       </c>
       <c r="J17" s="3">
+        <v>454900</v>
+      </c>
+      <c r="K17" s="3">
         <v>399900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1284000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>308000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>270000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1643800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-48700</v>
+        <v>16100</v>
       </c>
       <c r="E18" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
-        <v>243600</v>
-      </c>
       <c r="G18" s="3">
-        <v>226400</v>
+        <v>243500</v>
       </c>
       <c r="H18" s="3">
-        <v>146800</v>
+        <v>226300</v>
       </c>
       <c r="I18" s="3">
-        <v>293200</v>
+        <v>146700</v>
       </c>
       <c r="J18" s="3">
+        <v>293000</v>
+      </c>
+      <c r="K18" s="3">
         <v>184700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-804600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>-18900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1249600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-16100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>64300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>747500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>-16600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1148400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-46400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>85000</v>
       </c>
-      <c r="F21" s="3">
-        <v>303200</v>
-      </c>
       <c r="G21" s="3">
-        <v>254900</v>
+        <v>303000</v>
       </c>
       <c r="H21" s="3">
-        <v>184900</v>
+        <v>254800</v>
       </c>
       <c r="I21" s="3">
-        <v>314700</v>
+        <v>184800</v>
       </c>
       <c r="J21" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K21" s="3">
         <v>187600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
-        <v>7900</v>
-      </c>
       <c r="J22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68200</v>
       </c>
-      <c r="F23" s="3">
-        <v>286100</v>
-      </c>
       <c r="G23" s="3">
-        <v>237700</v>
+        <v>286000</v>
       </c>
       <c r="H23" s="3">
-        <v>164600</v>
+        <v>237600</v>
       </c>
       <c r="I23" s="3">
-        <v>290500</v>
+        <v>164500</v>
       </c>
       <c r="J23" s="3">
+        <v>290400</v>
+      </c>
+      <c r="K23" s="3">
         <v>163900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-57100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>-46000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-141500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>62900</v>
       </c>
-      <c r="G24" s="3">
-        <v>57300</v>
-      </c>
       <c r="H24" s="3">
-        <v>73500</v>
+        <v>57200</v>
       </c>
       <c r="I24" s="3">
+        <v>73400</v>
+      </c>
+      <c r="J24" s="3">
         <v>77000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-3400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>64600</v>
       </c>
-      <c r="F26" s="3">
-        <v>223300</v>
-      </c>
       <c r="G26" s="3">
+        <v>223100</v>
+      </c>
+      <c r="H26" s="3">
         <v>180400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>91100</v>
       </c>
-      <c r="I26" s="3">
-        <v>213500</v>
-      </c>
       <c r="J26" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K26" s="3">
         <v>150800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-57100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>-46000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-138100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>64600</v>
       </c>
-      <c r="F27" s="3">
-        <v>223300</v>
-      </c>
       <c r="G27" s="3">
+        <v>223100</v>
+      </c>
+      <c r="H27" s="3">
         <v>180400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>91100</v>
       </c>
-      <c r="I27" s="3">
-        <v>213500</v>
-      </c>
       <c r="J27" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K27" s="3">
         <v>150800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-57100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>-46000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-138100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E32" s="3">
         <v>16100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-64300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-42800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-747500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>16600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1148400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>64600</v>
       </c>
-      <c r="F33" s="3">
-        <v>223300</v>
-      </c>
       <c r="G33" s="3">
+        <v>223100</v>
+      </c>
+      <c r="H33" s="3">
         <v>180400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>91100</v>
       </c>
-      <c r="I33" s="3">
-        <v>213500</v>
-      </c>
       <c r="J33" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K33" s="3">
         <v>150800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-57100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>-46000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-138100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>64600</v>
       </c>
-      <c r="F35" s="3">
-        <v>223300</v>
-      </c>
       <c r="G35" s="3">
+        <v>223100</v>
+      </c>
+      <c r="H35" s="3">
         <v>180400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>91100</v>
       </c>
-      <c r="I35" s="3">
-        <v>213500</v>
-      </c>
       <c r="J35" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K35" s="3">
         <v>150800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-57100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>-46000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-138100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181300</v>
+        <v>183200</v>
       </c>
       <c r="E41" s="3">
-        <v>344400</v>
+        <v>181200</v>
       </c>
       <c r="F41" s="3">
-        <v>842100</v>
+        <v>344200</v>
       </c>
       <c r="G41" s="3">
-        <v>678000</v>
+        <v>841700</v>
       </c>
       <c r="H41" s="3">
-        <v>435200</v>
+        <v>677700</v>
       </c>
       <c r="I41" s="3">
-        <v>271600</v>
+        <v>435000</v>
       </c>
       <c r="J41" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K41" s="3">
         <v>16200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>195300</v>
+        <v>215600</v>
       </c>
       <c r="E43" s="3">
-        <v>212800</v>
+        <v>195200</v>
       </c>
       <c r="F43" s="3">
-        <v>242100</v>
+        <v>212700</v>
       </c>
       <c r="G43" s="3">
-        <v>298000</v>
+        <v>241900</v>
       </c>
       <c r="H43" s="3">
-        <v>337000</v>
+        <v>297800</v>
       </c>
       <c r="I43" s="3">
-        <v>330100</v>
+        <v>336900</v>
       </c>
       <c r="J43" s="3">
+        <v>330000</v>
+      </c>
+      <c r="K43" s="3">
         <v>246800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,35 +2192,38 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>675700</v>
+        <v>535100</v>
       </c>
       <c r="E44" s="3">
-        <v>641800</v>
+        <v>675400</v>
       </c>
       <c r="F44" s="3">
-        <v>472400</v>
+        <v>641400</v>
       </c>
       <c r="G44" s="3">
-        <v>355600</v>
+        <v>472100</v>
       </c>
       <c r="H44" s="3">
-        <v>456000</v>
+        <v>355400</v>
       </c>
       <c r="I44" s="3">
-        <v>360000</v>
+        <v>455800</v>
       </c>
       <c r="J44" s="3">
+        <v>359800</v>
+      </c>
+      <c r="K44" s="3">
         <v>347800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,35 +2239,38 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E45" s="3">
         <v>76700</v>
       </c>
-      <c r="E45" s="3">
-        <v>90600</v>
-      </c>
       <c r="F45" s="3">
+        <v>90500</v>
+      </c>
+      <c r="G45" s="3">
         <v>82400</v>
       </c>
-      <c r="G45" s="3">
-        <v>88100</v>
-      </c>
       <c r="H45" s="3">
+        <v>88000</v>
+      </c>
+      <c r="I45" s="3">
         <v>107100</v>
       </c>
-      <c r="I45" s="3">
-        <v>124600</v>
-      </c>
       <c r="J45" s="3">
+        <v>124500</v>
+      </c>
+      <c r="K45" s="3">
         <v>129600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1129000</v>
+        <v>1011600</v>
       </c>
       <c r="E46" s="3">
-        <v>1289600</v>
+        <v>1128500</v>
       </c>
       <c r="F46" s="3">
-        <v>1639000</v>
+        <v>1288900</v>
       </c>
       <c r="G46" s="3">
-        <v>1419600</v>
+        <v>1638200</v>
       </c>
       <c r="H46" s="3">
-        <v>1335300</v>
+        <v>1418900</v>
       </c>
       <c r="I46" s="3">
-        <v>1086300</v>
+        <v>1334600</v>
       </c>
       <c r="J46" s="3">
+        <v>1085700</v>
+      </c>
+      <c r="K46" s="3">
         <v>740400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2245,21 +2350,21 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2275,35 +2380,38 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>757300</v>
+        <v>800600</v>
       </c>
       <c r="E48" s="3">
-        <v>720200</v>
+        <v>756900</v>
       </c>
       <c r="F48" s="3">
-        <v>633000</v>
+        <v>719900</v>
       </c>
       <c r="G48" s="3">
-        <v>573100</v>
+        <v>632600</v>
       </c>
       <c r="H48" s="3">
-        <v>528600</v>
+        <v>572800</v>
       </c>
       <c r="I48" s="3">
-        <v>526000</v>
+        <v>528300</v>
       </c>
       <c r="J48" s="3">
+        <v>525700</v>
+      </c>
+      <c r="K48" s="3">
         <v>509200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,26 +2439,26 @@
         <v>700</v>
       </c>
       <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1888100</v>
+        <v>1818000</v>
       </c>
       <c r="E54" s="3">
-        <v>2011800</v>
+        <v>1887200</v>
       </c>
       <c r="F54" s="3">
-        <v>2274400</v>
+        <v>2010800</v>
       </c>
       <c r="G54" s="3">
-        <v>1995300</v>
+        <v>2273300</v>
       </c>
       <c r="H54" s="3">
-        <v>1867200</v>
+        <v>1994200</v>
       </c>
       <c r="I54" s="3">
-        <v>1619000</v>
+        <v>1866200</v>
       </c>
       <c r="J54" s="3">
+        <v>1618200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1257200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E57" s="3">
         <v>41900</v>
       </c>
-      <c r="E57" s="3">
-        <v>68700</v>
-      </c>
       <c r="F57" s="3">
-        <v>439200</v>
+        <v>68600</v>
       </c>
       <c r="G57" s="3">
+        <v>439000</v>
+      </c>
+      <c r="H57" s="3">
         <v>40400</v>
       </c>
-      <c r="H57" s="3">
-        <v>79900</v>
-      </c>
       <c r="I57" s="3">
+        <v>79800</v>
+      </c>
+      <c r="J57" s="3">
         <v>75900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,35 +2794,38 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>16600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>249400</v>
+        <v>201200</v>
       </c>
       <c r="E59" s="3">
-        <v>284700</v>
+        <v>249300</v>
       </c>
       <c r="F59" s="3">
-        <v>339300</v>
+        <v>284600</v>
       </c>
       <c r="G59" s="3">
-        <v>350200</v>
+        <v>339200</v>
       </c>
       <c r="H59" s="3">
-        <v>676300</v>
+        <v>350000</v>
       </c>
       <c r="I59" s="3">
-        <v>205900</v>
+        <v>675900</v>
       </c>
       <c r="J59" s="3">
+        <v>205700</v>
+      </c>
+      <c r="K59" s="3">
         <v>183600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>307900</v>
+        <v>254200</v>
       </c>
       <c r="E60" s="3">
-        <v>361200</v>
+        <v>307800</v>
       </c>
       <c r="F60" s="3">
-        <v>786100</v>
+        <v>361000</v>
       </c>
       <c r="G60" s="3">
-        <v>398100</v>
+        <v>785700</v>
       </c>
       <c r="H60" s="3">
-        <v>761700</v>
+        <v>397900</v>
       </c>
       <c r="I60" s="3">
-        <v>296700</v>
+        <v>761300</v>
       </c>
       <c r="J60" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K60" s="3">
         <v>246200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,35 +2935,38 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72700</v>
+        <v>81700</v>
       </c>
       <c r="E61" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F61" s="3">
         <v>68700</v>
       </c>
-      <c r="F61" s="3">
-        <v>63000</v>
-      </c>
       <c r="G61" s="3">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="H61" s="3">
         <v>63100</v>
       </c>
       <c r="I61" s="3">
-        <v>387200</v>
+        <v>63100</v>
       </c>
       <c r="J61" s="3">
+        <v>387000</v>
+      </c>
+      <c r="K61" s="3">
         <v>381600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>418700</v>
+        <v>399500</v>
       </c>
       <c r="E62" s="3">
-        <v>444800</v>
+        <v>418500</v>
       </c>
       <c r="F62" s="3">
-        <v>394800</v>
+        <v>444600</v>
       </c>
       <c r="G62" s="3">
-        <v>361700</v>
+        <v>394600</v>
       </c>
       <c r="H62" s="3">
-        <v>411000</v>
+        <v>361500</v>
       </c>
       <c r="I62" s="3">
-        <v>382300</v>
+        <v>410800</v>
       </c>
       <c r="J62" s="3">
+        <v>382100</v>
+      </c>
+      <c r="K62" s="3">
         <v>361000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>799300</v>
+        <v>735500</v>
       </c>
       <c r="E66" s="3">
-        <v>874700</v>
+        <v>798900</v>
       </c>
       <c r="F66" s="3">
-        <v>1243900</v>
+        <v>874300</v>
       </c>
       <c r="G66" s="3">
-        <v>823000</v>
+        <v>1243300</v>
       </c>
       <c r="H66" s="3">
-        <v>1235900</v>
+        <v>822500</v>
       </c>
       <c r="I66" s="3">
-        <v>1066100</v>
+        <v>1235200</v>
       </c>
       <c r="J66" s="3">
+        <v>1065600</v>
+      </c>
+      <c r="K66" s="3">
         <v>988800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>177500</v>
+        <v>156700</v>
       </c>
       <c r="E72" s="3">
-        <v>234100</v>
+        <v>177400</v>
       </c>
       <c r="F72" s="3">
-        <v>209100</v>
+        <v>234000</v>
       </c>
       <c r="G72" s="3">
+        <v>209000</v>
+      </c>
+      <c r="H72" s="3">
         <v>57600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-115900</v>
       </c>
-      <c r="I72" s="3">
-        <v>179900</v>
-      </c>
       <c r="J72" s="3">
+        <v>179800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-33900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1088800</v>
+        <v>1082600</v>
       </c>
       <c r="E76" s="3">
-        <v>1137100</v>
+        <v>1088300</v>
       </c>
       <c r="F76" s="3">
-        <v>1030500</v>
+        <v>1136500</v>
       </c>
       <c r="G76" s="3">
-        <v>1172300</v>
+        <v>1030000</v>
       </c>
       <c r="H76" s="3">
-        <v>631300</v>
+        <v>1171700</v>
       </c>
       <c r="I76" s="3">
-        <v>552900</v>
+        <v>631000</v>
       </c>
       <c r="J76" s="3">
+        <v>552600</v>
+      </c>
+      <c r="K76" s="3">
         <v>268400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>64600</v>
       </c>
-      <c r="F81" s="3">
-        <v>223300</v>
-      </c>
       <c r="G81" s="3">
+        <v>223100</v>
+      </c>
+      <c r="H81" s="3">
         <v>180400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>91100</v>
       </c>
-      <c r="I81" s="3">
-        <v>213500</v>
-      </c>
       <c r="J81" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K81" s="3">
         <v>150800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-57100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>-46000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-138100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E83" s="3">
         <v>18300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>32700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-95300</v>
+        <v>70600</v>
       </c>
       <c r="E89" s="3">
-        <v>-49000</v>
+        <v>-95200</v>
       </c>
       <c r="F89" s="3">
-        <v>204900</v>
+        <v>-48900</v>
       </c>
       <c r="G89" s="3">
-        <v>328700</v>
+        <v>204800</v>
       </c>
       <c r="H89" s="3">
-        <v>235900</v>
+        <v>328600</v>
       </c>
       <c r="I89" s="3">
-        <v>281600</v>
+        <v>235700</v>
       </c>
       <c r="J89" s="3">
+        <v>281400</v>
+      </c>
+      <c r="K89" s="3">
         <v>89700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>-58600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-80100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-92200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-23600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-69600</v>
-      </c>
       <c r="H94" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-20400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-24500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,17 +4381,18 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
-        <v>-410600</v>
-      </c>
       <c r="F100" s="3">
+        <v>-410400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-54700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-74800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-94500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>24900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>23100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>3000</v>
       </c>
       <c r="I101" s="3">
         <v>3000</v>
       </c>
       <c r="J101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-8100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-163100</v>
+        <v>2000</v>
       </c>
       <c r="E102" s="3">
-        <v>-497800</v>
+        <v>-163000</v>
       </c>
       <c r="F102" s="3">
+        <v>-497500</v>
+      </c>
+      <c r="G102" s="3">
         <v>164100</v>
       </c>
-      <c r="G102" s="3">
-        <v>242800</v>
-      </c>
       <c r="H102" s="3">
-        <v>163600</v>
+        <v>242700</v>
       </c>
       <c r="I102" s="3">
-        <v>255300</v>
+        <v>163500</v>
       </c>
       <c r="J102" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>-185600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>501500</v>
+        <v>532600</v>
       </c>
       <c r="E8" s="3">
-        <v>420400</v>
+        <v>601400</v>
       </c>
       <c r="F8" s="3">
-        <v>443600</v>
+        <v>492500</v>
       </c>
       <c r="G8" s="3">
-        <v>691600</v>
+        <v>412800</v>
       </c>
       <c r="H8" s="3">
-        <v>697300</v>
+        <v>435600</v>
       </c>
       <c r="I8" s="3">
+        <v>679100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>684700</v>
+      </c>
+      <c r="K8" s="3">
         <v>788400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>747900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>584500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>479400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>332700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>289000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>267900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>394300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>464800</v>
+        <v>474400</v>
       </c>
       <c r="E9" s="3">
-        <v>452100</v>
+        <v>463100</v>
       </c>
       <c r="F9" s="3">
-        <v>421500</v>
+        <v>456400</v>
       </c>
       <c r="G9" s="3">
-        <v>424800</v>
+        <v>443900</v>
       </c>
       <c r="H9" s="3">
-        <v>445400</v>
+        <v>413900</v>
       </c>
       <c r="I9" s="3">
+        <v>417200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>437400</v>
+      </c>
+      <c r="K9" s="3">
         <v>444100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>428800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>378400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1616700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>334400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>313600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>280000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1985700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36700</v>
+        <v>58200</v>
       </c>
       <c r="E10" s="3">
-        <v>-31700</v>
+        <v>138300</v>
       </c>
       <c r="F10" s="3">
-        <v>22100</v>
+        <v>36100</v>
       </c>
       <c r="G10" s="3">
-        <v>266800</v>
+        <v>-31100</v>
       </c>
       <c r="H10" s="3">
-        <v>251900</v>
+        <v>21700</v>
       </c>
       <c r="I10" s="3">
+        <v>261900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>247300</v>
+      </c>
+      <c r="K10" s="3">
         <v>344300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>319100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>206100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1137300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-24600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-12100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-1591500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-45800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1023,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1007,45 +1047,51 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K14" s="3">
         <v>183500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-39600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-15900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-20700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1059,32 +1105,38 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>485500</v>
+        <v>505900</v>
       </c>
       <c r="E17" s="3">
-        <v>469000</v>
+        <v>481900</v>
       </c>
       <c r="F17" s="3">
-        <v>439500</v>
+        <v>476700</v>
       </c>
       <c r="G17" s="3">
-        <v>448100</v>
+        <v>460600</v>
       </c>
       <c r="H17" s="3">
-        <v>471000</v>
+        <v>431600</v>
       </c>
       <c r="I17" s="3">
+        <v>440000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>462500</v>
+      </c>
+      <c r="K17" s="3">
         <v>641700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>454900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>399900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1284000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>308000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>270000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1643800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16100</v>
+        <v>26800</v>
       </c>
       <c r="E18" s="3">
-        <v>-48600</v>
+        <v>119400</v>
       </c>
       <c r="F18" s="3">
+        <v>15800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
-        <v>243500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>226300</v>
-      </c>
       <c r="I18" s="3">
+        <v>239100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K18" s="3">
         <v>146700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>293000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>184700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-804600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>-18900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1249600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1278,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26800</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>-16100</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
-        <v>64300</v>
+        <v>-26300</v>
       </c>
       <c r="G20" s="3">
-        <v>42800</v>
+        <v>-15800</v>
       </c>
       <c r="H20" s="3">
-        <v>11700</v>
+        <v>63100</v>
       </c>
       <c r="I20" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K20" s="3">
         <v>22100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-12400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>747500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>-16600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-18900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1148400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8200</v>
+        <v>50000</v>
       </c>
       <c r="E21" s="3">
-        <v>-46400</v>
+        <v>141000</v>
       </c>
       <c r="F21" s="3">
-        <v>85000</v>
+        <v>8100</v>
       </c>
       <c r="G21" s="3">
-        <v>303000</v>
+        <v>-45600</v>
       </c>
       <c r="H21" s="3">
-        <v>254800</v>
+        <v>83500</v>
       </c>
       <c r="I21" s="3">
+        <v>297600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>250200</v>
+      </c>
+      <c r="K21" s="3">
         <v>184800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>314600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>187600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-6400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>40300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11100</v>
+        <v>31300</v>
       </c>
       <c r="E23" s="3">
-        <v>-64700</v>
+        <v>123700</v>
       </c>
       <c r="F23" s="3">
-        <v>68200</v>
+        <v>-10900</v>
       </c>
       <c r="G23" s="3">
-        <v>286000</v>
+        <v>-63500</v>
       </c>
       <c r="H23" s="3">
-        <v>237600</v>
+        <v>67000</v>
       </c>
       <c r="I23" s="3">
+        <v>280800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>233300</v>
+      </c>
+      <c r="K23" s="3">
         <v>164500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>290400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>163900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-57100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>-46000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-32700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-141500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4000</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
-        <v>-13000</v>
+        <v>28600</v>
       </c>
       <c r="F24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
-        <v>62900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>57200</v>
-      </c>
       <c r="I24" s="3">
+        <v>61700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K24" s="3">
         <v>73400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>77000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15100</v>
+        <v>22600</v>
       </c>
       <c r="E26" s="3">
-        <v>-51700</v>
+        <v>95200</v>
       </c>
       <c r="F26" s="3">
-        <v>64600</v>
+        <v>-14800</v>
       </c>
       <c r="G26" s="3">
-        <v>223100</v>
+        <v>-50700</v>
       </c>
       <c r="H26" s="3">
-        <v>180400</v>
+        <v>63400</v>
       </c>
       <c r="I26" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K26" s="3">
         <v>91100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>213400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>150800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-57100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>-46000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-32700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-138100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15100</v>
+        <v>22600</v>
       </c>
       <c r="E27" s="3">
-        <v>-51700</v>
+        <v>95200</v>
       </c>
       <c r="F27" s="3">
-        <v>64600</v>
+        <v>-14800</v>
       </c>
       <c r="G27" s="3">
-        <v>223100</v>
+        <v>-50700</v>
       </c>
       <c r="H27" s="3">
-        <v>180400</v>
+        <v>63400</v>
       </c>
       <c r="I27" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K27" s="3">
         <v>91100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>213400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>150800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-57100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>-46000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-32700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-138100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26800</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>16100</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
-        <v>-64300</v>
+        <v>26300</v>
       </c>
       <c r="G32" s="3">
-        <v>-42800</v>
+        <v>15800</v>
       </c>
       <c r="H32" s="3">
-        <v>-11700</v>
+        <v>-63100</v>
       </c>
       <c r="I32" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>12400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-747500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>16600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>18900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1148400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15100</v>
+        <v>22600</v>
       </c>
       <c r="E33" s="3">
-        <v>-51700</v>
+        <v>95200</v>
       </c>
       <c r="F33" s="3">
-        <v>64600</v>
+        <v>-14800</v>
       </c>
       <c r="G33" s="3">
-        <v>223100</v>
+        <v>-50700</v>
       </c>
       <c r="H33" s="3">
-        <v>180400</v>
+        <v>63400</v>
       </c>
       <c r="I33" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K33" s="3">
         <v>91100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>213400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>150800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-57100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>-46000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-32700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-138100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15100</v>
+        <v>22600</v>
       </c>
       <c r="E35" s="3">
-        <v>-51700</v>
+        <v>95200</v>
       </c>
       <c r="F35" s="3">
-        <v>64600</v>
+        <v>-14800</v>
       </c>
       <c r="G35" s="3">
-        <v>223100</v>
+        <v>-50700</v>
       </c>
       <c r="H35" s="3">
-        <v>180400</v>
+        <v>63400</v>
       </c>
       <c r="I35" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K35" s="3">
         <v>91100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>213400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>150800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-57100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>-46000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-32700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-138100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2226,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>183200</v>
+        <v>155300</v>
       </c>
       <c r="E41" s="3">
-        <v>181200</v>
+        <v>218500</v>
       </c>
       <c r="F41" s="3">
-        <v>344200</v>
+        <v>179900</v>
       </c>
       <c r="G41" s="3">
-        <v>841700</v>
+        <v>177900</v>
       </c>
       <c r="H41" s="3">
-        <v>677700</v>
+        <v>338000</v>
       </c>
       <c r="I41" s="3">
+        <v>826500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>665400</v>
+      </c>
+      <c r="K41" s="3">
         <v>435000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>271400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,8 +2275,14 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,41 +2328,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>215600</v>
+        <v>229700</v>
       </c>
       <c r="E43" s="3">
-        <v>195200</v>
+        <v>225700</v>
       </c>
       <c r="F43" s="3">
-        <v>212700</v>
+        <v>211700</v>
       </c>
       <c r="G43" s="3">
-        <v>241900</v>
+        <v>191700</v>
       </c>
       <c r="H43" s="3">
-        <v>297800</v>
+        <v>208900</v>
       </c>
       <c r="I43" s="3">
+        <v>237600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K43" s="3">
         <v>336900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>330000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>246800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2195,41 +2381,47 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>535100</v>
+        <v>598100</v>
       </c>
       <c r="E44" s="3">
-        <v>675400</v>
+        <v>552000</v>
       </c>
       <c r="F44" s="3">
-        <v>641400</v>
+        <v>525400</v>
       </c>
       <c r="G44" s="3">
-        <v>472100</v>
+        <v>663200</v>
       </c>
       <c r="H44" s="3">
-        <v>355400</v>
+        <v>629900</v>
       </c>
       <c r="I44" s="3">
+        <v>463600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>349000</v>
+      </c>
+      <c r="K44" s="3">
         <v>455800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>359800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>347800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2242,41 +2434,47 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>77700</v>
+        <v>54800</v>
       </c>
       <c r="E45" s="3">
-        <v>76700</v>
+        <v>79900</v>
       </c>
       <c r="F45" s="3">
-        <v>90500</v>
+        <v>76300</v>
       </c>
       <c r="G45" s="3">
-        <v>82400</v>
+        <v>75300</v>
       </c>
       <c r="H45" s="3">
-        <v>88000</v>
+        <v>88900</v>
       </c>
       <c r="I45" s="3">
+        <v>80900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K45" s="3">
         <v>107100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>124500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>129600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,41 +2487,47 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1011600</v>
+        <v>1037900</v>
       </c>
       <c r="E46" s="3">
-        <v>1128500</v>
+        <v>1076100</v>
       </c>
       <c r="F46" s="3">
-        <v>1288900</v>
+        <v>993300</v>
       </c>
       <c r="G46" s="3">
-        <v>1638200</v>
+        <v>1108100</v>
       </c>
       <c r="H46" s="3">
-        <v>1418900</v>
+        <v>1265700</v>
       </c>
       <c r="I46" s="3">
+        <v>1608700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1393300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1334600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1085700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>740400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2336,22 +2540,28 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2360,17 +2570,17 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,41 +2593,47 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800600</v>
+        <v>928200</v>
       </c>
       <c r="E48" s="3">
-        <v>756900</v>
+        <v>828100</v>
       </c>
       <c r="F48" s="3">
-        <v>719900</v>
+        <v>786100</v>
       </c>
       <c r="G48" s="3">
-        <v>632600</v>
+        <v>743300</v>
       </c>
       <c r="H48" s="3">
-        <v>572800</v>
+        <v>706900</v>
       </c>
       <c r="I48" s="3">
+        <v>621200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>562500</v>
+      </c>
+      <c r="K48" s="3">
         <v>528300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>525700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>509200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,29 +2664,29 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>800</v>
       </c>
       <c r="I49" s="3">
+        <v>900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2805,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5700</v>
       </c>
       <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2911,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1818000</v>
+        <v>1972500</v>
       </c>
       <c r="E54" s="3">
-        <v>1887200</v>
+        <v>1910400</v>
       </c>
       <c r="F54" s="3">
-        <v>2010800</v>
+        <v>1785200</v>
       </c>
       <c r="G54" s="3">
-        <v>2273300</v>
+        <v>1853100</v>
       </c>
       <c r="H54" s="3">
-        <v>1994200</v>
+        <v>1974600</v>
       </c>
       <c r="I54" s="3">
+        <v>2232300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1958300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1866200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1618200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1257200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +3010,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44300</v>
+        <v>75000</v>
       </c>
       <c r="E57" s="3">
-        <v>41900</v>
+        <v>79000</v>
       </c>
       <c r="F57" s="3">
-        <v>68600</v>
+        <v>43500</v>
       </c>
       <c r="G57" s="3">
-        <v>439000</v>
+        <v>41100</v>
       </c>
       <c r="H57" s="3">
-        <v>40400</v>
+        <v>67400</v>
       </c>
       <c r="I57" s="3">
+        <v>431000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K57" s="3">
         <v>79800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>75900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>50400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,41 +3059,47 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E58" s="3">
-        <v>16600</v>
+        <v>9500</v>
       </c>
       <c r="F58" s="3">
-        <v>7800</v>
+        <v>8700</v>
       </c>
       <c r="G58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H58" s="3">
         <v>7600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>12200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2844,41 +3112,47 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>201200</v>
+        <v>236900</v>
       </c>
       <c r="E59" s="3">
-        <v>249300</v>
+        <v>219700</v>
       </c>
       <c r="F59" s="3">
-        <v>284600</v>
+        <v>197500</v>
       </c>
       <c r="G59" s="3">
-        <v>339200</v>
+        <v>244800</v>
       </c>
       <c r="H59" s="3">
-        <v>350000</v>
+        <v>279500</v>
       </c>
       <c r="I59" s="3">
+        <v>333000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>343700</v>
+      </c>
+      <c r="K59" s="3">
         <v>675900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>205700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>183600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,41 +3165,47 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>254200</v>
+        <v>320800</v>
       </c>
       <c r="E60" s="3">
-        <v>307800</v>
+        <v>308200</v>
       </c>
       <c r="F60" s="3">
-        <v>361000</v>
+        <v>249700</v>
       </c>
       <c r="G60" s="3">
-        <v>785700</v>
+        <v>302200</v>
       </c>
       <c r="H60" s="3">
-        <v>397900</v>
+        <v>354500</v>
       </c>
       <c r="I60" s="3">
+        <v>771600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>390800</v>
+      </c>
+      <c r="K60" s="3">
         <v>761300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>296500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>246200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,41 +3218,47 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81700</v>
+        <v>89300</v>
       </c>
       <c r="E61" s="3">
-        <v>72600</v>
+        <v>83700</v>
       </c>
       <c r="F61" s="3">
-        <v>68700</v>
+        <v>80300</v>
       </c>
       <c r="G61" s="3">
-        <v>62900</v>
+        <v>71300</v>
       </c>
       <c r="H61" s="3">
+        <v>67500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>61800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K61" s="3">
         <v>63100</v>
       </c>
-      <c r="I61" s="3">
-        <v>63100</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>387000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>381600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,41 +3271,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>399500</v>
+        <v>390600</v>
       </c>
       <c r="E62" s="3">
-        <v>418500</v>
+        <v>399800</v>
       </c>
       <c r="F62" s="3">
-        <v>444600</v>
+        <v>392300</v>
       </c>
       <c r="G62" s="3">
-        <v>394600</v>
+        <v>411000</v>
       </c>
       <c r="H62" s="3">
-        <v>361500</v>
+        <v>436600</v>
       </c>
       <c r="I62" s="3">
+        <v>387500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>355000</v>
+      </c>
+      <c r="K62" s="3">
         <v>410800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>382100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>361000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3483,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>735500</v>
+        <v>800700</v>
       </c>
       <c r="E66" s="3">
-        <v>798900</v>
+        <v>791600</v>
       </c>
       <c r="F66" s="3">
-        <v>874300</v>
+        <v>722200</v>
       </c>
       <c r="G66" s="3">
-        <v>1243300</v>
+        <v>784500</v>
       </c>
       <c r="H66" s="3">
-        <v>822500</v>
+        <v>858500</v>
       </c>
       <c r="I66" s="3">
+        <v>1220900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>807700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1235200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1065600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>988800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3769,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>156700</v>
+        <v>261300</v>
       </c>
       <c r="E72" s="3">
-        <v>177400</v>
+        <v>243900</v>
       </c>
       <c r="F72" s="3">
-        <v>234000</v>
+        <v>153800</v>
       </c>
       <c r="G72" s="3">
-        <v>209000</v>
+        <v>174200</v>
       </c>
       <c r="H72" s="3">
-        <v>57600</v>
+        <v>229700</v>
       </c>
       <c r="I72" s="3">
+        <v>205200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-115900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>179800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-33900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3981,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1082600</v>
+        <v>1171700</v>
       </c>
       <c r="E76" s="3">
-        <v>1088300</v>
+        <v>1118800</v>
       </c>
       <c r="F76" s="3">
-        <v>1136500</v>
+        <v>1063000</v>
       </c>
       <c r="G76" s="3">
-        <v>1030000</v>
+        <v>1068600</v>
       </c>
       <c r="H76" s="3">
-        <v>1171700</v>
+        <v>1116000</v>
       </c>
       <c r="I76" s="3">
+        <v>1011400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1150600</v>
+      </c>
+      <c r="K76" s="3">
         <v>631000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>552600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>268400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15100</v>
+        <v>22600</v>
       </c>
       <c r="E81" s="3">
-        <v>-51700</v>
+        <v>95200</v>
       </c>
       <c r="F81" s="3">
-        <v>64600</v>
+        <v>-14800</v>
       </c>
       <c r="G81" s="3">
-        <v>223100</v>
+        <v>-50700</v>
       </c>
       <c r="H81" s="3">
-        <v>180400</v>
+        <v>63400</v>
       </c>
       <c r="I81" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K81" s="3">
         <v>91100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>213400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>150800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-57100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>-46000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-32700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-138100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="E83" s="3">
-        <v>18300</v>
+        <v>16900</v>
       </c>
       <c r="F83" s="3">
-        <v>16600</v>
+        <v>18600</v>
       </c>
       <c r="G83" s="3">
-        <v>16700</v>
+        <v>18000</v>
       </c>
       <c r="H83" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="I83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K83" s="3">
         <v>15900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>15300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>32700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>70600</v>
+        <v>41600</v>
       </c>
       <c r="E89" s="3">
-        <v>-95200</v>
+        <v>119200</v>
       </c>
       <c r="F89" s="3">
-        <v>-48900</v>
+        <v>69400</v>
       </c>
       <c r="G89" s="3">
-        <v>204800</v>
+        <v>-93500</v>
       </c>
       <c r="H89" s="3">
-        <v>328600</v>
+        <v>-48100</v>
       </c>
       <c r="I89" s="3">
+        <v>201100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>322600</v>
+      </c>
+      <c r="K89" s="3">
         <v>235700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>281400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>89700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>-58600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-166800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-82600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-85600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-85200</v>
-      </c>
       <c r="G91" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-80100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-92200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-29800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-25100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-19100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-23600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-61200</v>
+        <v>-121300</v>
       </c>
       <c r="E94" s="3">
-        <v>-63400</v>
+        <v>-77400</v>
       </c>
       <c r="F94" s="3">
-        <v>-63100</v>
+        <v>-60100</v>
       </c>
       <c r="G94" s="3">
-        <v>-59300</v>
+        <v>-62200</v>
       </c>
       <c r="H94" s="3">
-        <v>-69500</v>
+        <v>-61900</v>
       </c>
       <c r="I94" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-14100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-24500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,22 +4848,24 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-5100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5056,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6100</v>
+        <v>12700</v>
       </c>
       <c r="E100" s="3">
-        <v>-700</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>-410400</v>
+        <v>-6000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4500</v>
+        <v>-6000</v>
       </c>
       <c r="H100" s="3">
-        <v>-7000</v>
+        <v>-397700</v>
       </c>
       <c r="I100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-54700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-10600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-74800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>-94500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>24900</v>
-      </c>
       <c r="G101" s="3">
-        <v>23100</v>
+        <v>-3600</v>
       </c>
       <c r="H101" s="3">
-        <v>-9300</v>
+        <v>24400</v>
       </c>
       <c r="I101" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>-8100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-163000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-497500</v>
-      </c>
       <c r="G102" s="3">
-        <v>164100</v>
+        <v>-160100</v>
       </c>
       <c r="H102" s="3">
-        <v>242700</v>
+        <v>-488600</v>
       </c>
       <c r="I102" s="3">
+        <v>161100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K102" s="3">
         <v>163500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>255200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>-185600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
